--- a/data/pca/factorExposure/factorExposure_2011-06-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-06-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -38,6 +38,18 @@
   </si>
   <si>
     <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -704,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,39 +747,63 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>-0.02309909254246452</v>
+        <v>-0.01890006489192245</v>
       </c>
       <c r="C2">
-        <v>0.001727517100728734</v>
+        <v>0.001016096738296913</v>
       </c>
       <c r="D2">
-        <v>0.05347483157791419</v>
+        <v>-0.005950910370220161</v>
       </c>
       <c r="E2">
-        <v>-0.02634219435771345</v>
+        <v>0.0413498378469928</v>
       </c>
       <c r="F2">
-        <v>0.04117531236786152</v>
+        <v>0.001826029055388757</v>
       </c>
       <c r="G2">
-        <v>-0.02196891046104954</v>
+        <v>-0.02795026338652292</v>
       </c>
       <c r="H2">
-        <v>-0.02168775910085969</v>
+        <v>-0.0107452336364658</v>
       </c>
       <c r="I2">
-        <v>-0.02743233247714508</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>-0.03853396331548052</v>
+      </c>
+      <c r="J2">
+        <v>-0.0009127579068811583</v>
+      </c>
+      <c r="K2">
+        <v>-0.04509305291216983</v>
+      </c>
+      <c r="L2">
+        <v>0.05715497370002369</v>
+      </c>
+      <c r="M2">
+        <v>0.01326858652210712</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -793,39 +829,63 @@
       <c r="I3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>-0.07042070563541464</v>
+        <v>-0.104691521012501</v>
       </c>
       <c r="C4">
-        <v>-0.06161713311654077</v>
+        <v>-0.07890235588586335</v>
       </c>
       <c r="D4">
-        <v>0.03145005601178527</v>
+        <v>-0.0269308211588377</v>
       </c>
       <c r="E4">
-        <v>-0.0405967947161486</v>
+        <v>0.04316235826041496</v>
       </c>
       <c r="F4">
-        <v>-0.01093527181741115</v>
+        <v>0.1103870172325208</v>
       </c>
       <c r="G4">
-        <v>-0.02459848592437632</v>
+        <v>0.01017621194987786</v>
       </c>
       <c r="H4">
-        <v>0.006237775894815241</v>
+        <v>0.06200967598167795</v>
       </c>
       <c r="I4">
-        <v>0.004470654150301076</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.03052511449815438</v>
+      </c>
+      <c r="J4">
+        <v>-0.0702057024541463</v>
+      </c>
+      <c r="K4">
+        <v>0.01121862386672893</v>
+      </c>
+      <c r="L4">
+        <v>-0.07197527893923938</v>
+      </c>
+      <c r="M4">
+        <v>0.03233362568800318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -851,329 +911,473 @@
       <c r="I5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>-0.1332768212929532</v>
+        <v>-0.1296804527263597</v>
       </c>
       <c r="C6">
-        <v>-0.04678605105580394</v>
+        <v>-0.05603630011274818</v>
       </c>
       <c r="D6">
-        <v>0.0677581446109409</v>
+        <v>-0.007271958367611894</v>
       </c>
       <c r="E6">
-        <v>-0.1023294454902485</v>
+        <v>0.02470571236152887</v>
       </c>
       <c r="F6">
-        <v>-0.07106280634189471</v>
+        <v>0.05672401958930594</v>
       </c>
       <c r="G6">
-        <v>0.07432389227342855</v>
+        <v>0.1681210130499159</v>
       </c>
       <c r="H6">
-        <v>0.2604116740302567</v>
+        <v>-0.06244250859250052</v>
       </c>
       <c r="I6">
-        <v>-0.1514863750823261</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.1062119262957245</v>
+      </c>
+      <c r="J6">
+        <v>-0.3402488659879111</v>
+      </c>
+      <c r="K6">
+        <v>0.2386583736463312</v>
+      </c>
+      <c r="L6">
+        <v>0.1038726104446119</v>
+      </c>
+      <c r="M6">
+        <v>0.002469286547740773</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>-0.06760774766086552</v>
+        <v>-0.07090326809442912</v>
       </c>
       <c r="C7">
-        <v>-0.0522477392493331</v>
+        <v>-0.07342919130268001</v>
       </c>
       <c r="D7">
-        <v>0.05363311735016323</v>
+        <v>-0.007834898599071881</v>
       </c>
       <c r="E7">
-        <v>-0.04086223853919232</v>
+        <v>0.04478723062279054</v>
       </c>
       <c r="F7">
-        <v>-0.03310262486197819</v>
+        <v>0.01848173762243519</v>
       </c>
       <c r="G7">
-        <v>0.01547927518155198</v>
+        <v>-0.006933762446430948</v>
       </c>
       <c r="H7">
-        <v>-0.01062862806207338</v>
+        <v>0.04894207772678578</v>
       </c>
       <c r="I7">
-        <v>0.06384737119102911</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0.02793526154914097</v>
+      </c>
+      <c r="J7">
+        <v>0.02577797919799597</v>
+      </c>
+      <c r="K7">
+        <v>-0.01933209328609714</v>
+      </c>
+      <c r="L7">
+        <v>-0.09386144424399043</v>
+      </c>
+      <c r="M7">
+        <v>-0.005581352293810813</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>-0.0279633827354424</v>
+        <v>-0.03728414047752743</v>
       </c>
       <c r="C8">
-        <v>-0.02502543958264738</v>
+        <v>-0.01185890144938456</v>
       </c>
       <c r="D8">
-        <v>0.03445877745113993</v>
+        <v>-0.01979928655724346</v>
       </c>
       <c r="E8">
-        <v>-0.05789782860115805</v>
+        <v>0.04724661361686287</v>
       </c>
       <c r="F8">
-        <v>0.04951292321927423</v>
+        <v>0.1038970029812777</v>
       </c>
       <c r="G8">
-        <v>0.03367954279367875</v>
+        <v>0.009191427684139089</v>
       </c>
       <c r="H8">
-        <v>-0.01179178070143273</v>
+        <v>0.03301915802870679</v>
       </c>
       <c r="I8">
-        <v>0.03919247068074196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0.01132526722019984</v>
+      </c>
+      <c r="J8">
+        <v>-0.0679423379035327</v>
+      </c>
+      <c r="K8">
+        <v>-0.01937968137782829</v>
+      </c>
+      <c r="L8">
+        <v>-0.05721561030285031</v>
+      </c>
+      <c r="M8">
+        <v>0.03864725404804083</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>-0.07308215351157385</v>
+        <v>-0.08433934114141367</v>
       </c>
       <c r="C9">
-        <v>-0.07933183479590789</v>
+        <v>-0.06854807692852209</v>
       </c>
       <c r="D9">
-        <v>0.03593757476129385</v>
+        <v>-0.006110882392508912</v>
       </c>
       <c r="E9">
-        <v>-0.03069855552863378</v>
+        <v>0.02989860532414049</v>
       </c>
       <c r="F9">
-        <v>0.003733915100480678</v>
+        <v>0.1046495970529771</v>
       </c>
       <c r="G9">
-        <v>-0.02833869203863979</v>
+        <v>0.003396550554047929</v>
       </c>
       <c r="H9">
-        <v>-0.005542759348648219</v>
+        <v>0.05877656177503534</v>
       </c>
       <c r="I9">
-        <v>0.03507483063908844</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.04016023240695016</v>
+      </c>
+      <c r="J9">
+        <v>-0.03143158564113652</v>
+      </c>
+      <c r="K9">
+        <v>0.004468726984098066</v>
+      </c>
+      <c r="L9">
+        <v>-0.03903007457187102</v>
+      </c>
+      <c r="M9">
+        <v>0.001556109525372631</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>-0.06452103056589917</v>
+        <v>-0.1094485473892961</v>
       </c>
       <c r="C10">
-        <v>0.1367861483337462</v>
+        <v>0.170241277590979</v>
       </c>
       <c r="D10">
-        <v>0.06089253228812354</v>
+        <v>-0.01020595177837806</v>
       </c>
       <c r="E10">
-        <v>-0.04223177244609114</v>
+        <v>0.05205596966390705</v>
       </c>
       <c r="F10">
-        <v>-0.03470482165583479</v>
+        <v>-0.01474523687406461</v>
       </c>
       <c r="G10">
-        <v>0.03139235152076329</v>
+        <v>0.01007701918719203</v>
       </c>
       <c r="H10">
-        <v>0.046001571937528</v>
+        <v>-0.001593479521248884</v>
       </c>
       <c r="I10">
-        <v>0.03974705510995179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.02628358605170937</v>
+      </c>
+      <c r="J10">
+        <v>0.07583901184304082</v>
+      </c>
+      <c r="K10">
+        <v>-0.003099976070549515</v>
+      </c>
+      <c r="L10">
+        <v>-0.001430639471239841</v>
+      </c>
+      <c r="M10">
+        <v>-0.05918983757545924</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>-0.06710544705306132</v>
+        <v>-0.06660464406623921</v>
       </c>
       <c r="C11">
-        <v>-0.09060524499218572</v>
+        <v>-0.07003455652607654</v>
       </c>
       <c r="D11">
-        <v>0.03527578499931809</v>
+        <v>0.02815080672549769</v>
       </c>
       <c r="E11">
-        <v>-0.005051352625607293</v>
+        <v>0.0136460007076228</v>
       </c>
       <c r="F11">
-        <v>0.05480810173134739</v>
+        <v>0.1038880477956056</v>
       </c>
       <c r="G11">
-        <v>-0.01410900205321969</v>
+        <v>-0.02252832882057972</v>
       </c>
       <c r="H11">
-        <v>-0.04910627676089416</v>
+        <v>0.03999556344394715</v>
       </c>
       <c r="I11">
-        <v>0.08199645559062047</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.0397787463851496</v>
+      </c>
+      <c r="J11">
+        <v>0.06644056861691615</v>
+      </c>
+      <c r="K11">
+        <v>-0.07784528114341531</v>
+      </c>
+      <c r="L11">
+        <v>0.00828971305120246</v>
+      </c>
+      <c r="M11">
+        <v>-0.07908235865272567</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>-0.06148388958843541</v>
+        <v>-0.07237816540052727</v>
       </c>
       <c r="C12">
-        <v>-0.05510974623517964</v>
+        <v>-0.06316631574717213</v>
       </c>
       <c r="D12">
-        <v>0.01651227318660265</v>
+        <v>0.02850427418465228</v>
       </c>
       <c r="E12">
-        <v>-0.02167338014756733</v>
+        <v>0.003010668427087049</v>
       </c>
       <c r="F12">
-        <v>0.001509662072729594</v>
+        <v>0.1192205201032812</v>
       </c>
       <c r="G12">
-        <v>-0.001595592376275378</v>
+        <v>-0.02467995226794995</v>
       </c>
       <c r="H12">
-        <v>-0.04042839209299887</v>
+        <v>0.02791763421101101</v>
       </c>
       <c r="I12">
-        <v>0.1018021255025496</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0.05726143629890241</v>
+      </c>
+      <c r="J12">
+        <v>0.02595801770254698</v>
+      </c>
+      <c r="K12">
+        <v>-0.09277516227164978</v>
+      </c>
+      <c r="L12">
+        <v>-0.02460143572786321</v>
+      </c>
+      <c r="M12">
+        <v>-0.1089659956293035</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>-0.0529577495652866</v>
+        <v>-0.04558208663673993</v>
       </c>
       <c r="C13">
-        <v>-0.01682158581359263</v>
+        <v>-0.03225411874602366</v>
       </c>
       <c r="D13">
-        <v>0.001302910685200882</v>
+        <v>-0.02330324606895931</v>
       </c>
       <c r="E13">
-        <v>-0.01235617928625747</v>
+        <v>0.00835295055311551</v>
       </c>
       <c r="F13">
-        <v>0.02069237349217494</v>
+        <v>0.03942903548525309</v>
       </c>
       <c r="G13">
-        <v>-0.04860800639178223</v>
+        <v>-0.02241879840993848</v>
       </c>
       <c r="H13">
-        <v>-0.03268140370966728</v>
+        <v>0.0323562992852023</v>
       </c>
       <c r="I13">
-        <v>0.02040208469310572</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>0.001752994502955012</v>
+      </c>
+      <c r="J13">
+        <v>-0.02346452577602342</v>
+      </c>
+      <c r="K13">
+        <v>0.005279921365031021</v>
+      </c>
+      <c r="L13">
+        <v>-0.07661022263815032</v>
+      </c>
+      <c r="M13">
+        <v>0.002047645279129082</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>-0.04086327011093483</v>
+        <v>-0.04517632416653559</v>
       </c>
       <c r="C14">
-        <v>-0.02242451805339895</v>
+        <v>-0.02656334813153739</v>
       </c>
       <c r="D14">
-        <v>0.02018299395989249</v>
+        <v>0.00528866597030307</v>
       </c>
       <c r="E14">
-        <v>0.006629980923914584</v>
+        <v>0.01875679379632927</v>
       </c>
       <c r="F14">
-        <v>-0.01661141851927056</v>
+        <v>0.04537686539458731</v>
       </c>
       <c r="G14">
-        <v>-0.005118585714305447</v>
+        <v>-0.01970393336737997</v>
       </c>
       <c r="H14">
-        <v>0.09383213360078328</v>
+        <v>0.06974548722127097</v>
       </c>
       <c r="I14">
-        <v>0.03834433198689249</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>0.01823154271451114</v>
+      </c>
+      <c r="J14">
+        <v>-0.02994040308713028</v>
+      </c>
+      <c r="K14">
+        <v>0.04976673912718597</v>
+      </c>
+      <c r="L14">
+        <v>-0.05125903310840808</v>
+      </c>
+      <c r="M14">
+        <v>0.04299333854082767</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>-0.03623716667638349</v>
+        <v>-0.03060730282036877</v>
       </c>
       <c r="C15">
-        <v>0.007772564811572448</v>
+        <v>-0.008241870981519791</v>
       </c>
       <c r="D15">
-        <v>-0.004232445586498637</v>
+        <v>-0.06083950467318171</v>
       </c>
       <c r="E15">
-        <v>-0.02174539591574492</v>
+        <v>0.005587978714532652</v>
       </c>
       <c r="F15">
-        <v>-0.01378058473183863</v>
+        <v>0.002763509306262971</v>
       </c>
       <c r="G15">
-        <v>-0.01665320304246524</v>
+        <v>0.03537349035814442</v>
       </c>
       <c r="H15">
-        <v>0.006906518602613352</v>
+        <v>0.03783851114401426</v>
       </c>
       <c r="I15">
-        <v>0.00608476667462745</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>-0.02481066339819766</v>
+      </c>
+      <c r="J15">
+        <v>-0.02691233042273903</v>
+      </c>
+      <c r="K15">
+        <v>0.04506656655552951</v>
+      </c>
+      <c r="L15">
+        <v>-0.04829077428238854</v>
+      </c>
+      <c r="M15">
+        <v>-0.005553376180744547</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>-0.04982442628249677</v>
+        <v>-0.07079887120455849</v>
       </c>
       <c r="C16">
-        <v>-0.08508490837661005</v>
+        <v>-0.07837857162913174</v>
       </c>
       <c r="D16">
-        <v>0.02701508188599809</v>
+        <v>0.01877772165822595</v>
       </c>
       <c r="E16">
-        <v>-0.02655500929688049</v>
+        <v>0.0138077833183589</v>
       </c>
       <c r="F16">
-        <v>0.02658254629898353</v>
+        <v>0.1078732954710437</v>
       </c>
       <c r="G16">
-        <v>-0.02971900830960865</v>
+        <v>-0.03369924622613336</v>
       </c>
       <c r="H16">
-        <v>-0.0345022465234805</v>
+        <v>0.04296827392011849</v>
       </c>
       <c r="I16">
-        <v>0.1305436603105284</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>0.05692701240986458</v>
+      </c>
+      <c r="J16">
+        <v>0.04143085267332512</v>
+      </c>
+      <c r="K16">
+        <v>-0.08727844789672191</v>
+      </c>
+      <c r="L16">
+        <v>-0.02220248796716504</v>
+      </c>
+      <c r="M16">
+        <v>-0.06197789006647236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1199,10 +1403,22 @@
       <c r="I17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1228,10 +1444,22 @@
       <c r="I18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1257,213 +1485,309 @@
       <c r="I19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>-0.04007414976852234</v>
+        <v>-0.04321037035788532</v>
       </c>
       <c r="C20">
-        <v>-0.04329885185176867</v>
+        <v>-0.03110359559382834</v>
       </c>
       <c r="D20">
-        <v>0.01328742910674949</v>
+        <v>-0.02664518783262221</v>
       </c>
       <c r="E20">
-        <v>-0.01220872862800383</v>
+        <v>0.01769753877618029</v>
       </c>
       <c r="F20">
-        <v>0.003542338368335335</v>
+        <v>0.05414229121389408</v>
       </c>
       <c r="G20">
-        <v>-0.03788817678053638</v>
+        <v>-0.02654566456572914</v>
       </c>
       <c r="H20">
-        <v>-0.003828936176111266</v>
+        <v>0.04134997379493721</v>
       </c>
       <c r="I20">
-        <v>0.07170028478184873</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>0.04970205951506484</v>
+      </c>
+      <c r="J20">
+        <v>-0.0318944409092075</v>
+      </c>
+      <c r="K20">
+        <v>0.001421721907747483</v>
+      </c>
+      <c r="L20">
+        <v>-0.06271114050001932</v>
+      </c>
+      <c r="M20">
+        <v>-0.01880998834549827</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>-0.009939484368978742</v>
+        <v>-0.0286675949340473</v>
       </c>
       <c r="C21">
-        <v>-0.01718965036004279</v>
+        <v>-0.02065747247375824</v>
       </c>
       <c r="D21">
-        <v>-0.003833043557890871</v>
+        <v>-0.01376609800621117</v>
       </c>
       <c r="E21">
-        <v>-0.07587169633865583</v>
+        <v>0.01615629778463652</v>
       </c>
       <c r="F21">
-        <v>-0.03363832171872664</v>
+        <v>0.05047211363320282</v>
       </c>
       <c r="G21">
-        <v>0.09149566347462706</v>
+        <v>0.09209562800302172</v>
       </c>
       <c r="H21">
-        <v>0.01211925758295903</v>
+        <v>-0.005972577433505332</v>
       </c>
       <c r="I21">
-        <v>-0.06234871882188657</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>0.05251401030466674</v>
+      </c>
+      <c r="J21">
+        <v>0.01957621400381857</v>
+      </c>
+      <c r="K21">
+        <v>0.04971312710181148</v>
+      </c>
+      <c r="L21">
+        <v>-0.09582135662184993</v>
+      </c>
+      <c r="M21">
+        <v>0.01416700752271089</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>-0.01067680964205841</v>
+        <v>-0.03951197067345517</v>
       </c>
       <c r="C22">
-        <v>-0.05387043421422746</v>
+        <v>-0.03092241506193532</v>
       </c>
       <c r="D22">
-        <v>-0.1373372587536665</v>
+        <v>-0.6534384441421537</v>
       </c>
       <c r="E22">
-        <v>-0.4628027722488406</v>
+        <v>0.04673435100230353</v>
       </c>
       <c r="F22">
-        <v>-0.2095143184434536</v>
+        <v>-0.087612178716457</v>
       </c>
       <c r="G22">
-        <v>-0.1915288360012798</v>
+        <v>-0.07171084161117777</v>
       </c>
       <c r="H22">
-        <v>-0.2307839437577074</v>
+        <v>-0.0773180561463173</v>
       </c>
       <c r="I22">
-        <v>-0.2066636234553885</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>0.09076216153857189</v>
+      </c>
+      <c r="J22">
+        <v>0.08669465413117049</v>
+      </c>
+      <c r="K22">
+        <v>0.02240062578367555</v>
+      </c>
+      <c r="L22">
+        <v>0.02870513060264946</v>
+      </c>
+      <c r="M22">
+        <v>0.03757520879645142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>-0.01169509900298352</v>
+        <v>-0.04022286468334072</v>
       </c>
       <c r="C23">
-        <v>-0.05289610104004951</v>
+        <v>-0.03132212124188553</v>
       </c>
       <c r="D23">
-        <v>-0.1374774481236012</v>
+        <v>-0.65508774911991</v>
       </c>
       <c r="E23">
-        <v>-0.4640338289922902</v>
+        <v>0.04716477393367581</v>
       </c>
       <c r="F23">
-        <v>-0.2067991152507636</v>
+        <v>-0.08287729499142492</v>
       </c>
       <c r="G23">
-        <v>-0.1881678666728054</v>
+        <v>-0.07161095184355473</v>
       </c>
       <c r="H23">
-        <v>-0.228592055614863</v>
+        <v>-0.07881694197962322</v>
       </c>
       <c r="I23">
-        <v>-0.2075591290102508</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>0.08934267358198915</v>
+      </c>
+      <c r="J23">
+        <v>0.08348537533235541</v>
+      </c>
+      <c r="K23">
+        <v>0.0242706112573187</v>
+      </c>
+      <c r="L23">
+        <v>0.03245210434442071</v>
+      </c>
+      <c r="M23">
+        <v>0.03895980171296956</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>-0.06973601432678161</v>
+        <v>-0.07646788143295996</v>
       </c>
       <c r="C24">
-        <v>-0.08093568543226756</v>
+        <v>-0.0758370145157295</v>
       </c>
       <c r="D24">
-        <v>0.03704233530892568</v>
+        <v>0.01582729542767424</v>
       </c>
       <c r="E24">
-        <v>-0.03803444243703303</v>
+        <v>0.0162435414538575</v>
       </c>
       <c r="F24">
-        <v>0.03499148559782471</v>
+        <v>0.1093643359889176</v>
       </c>
       <c r="G24">
-        <v>-0.01135793124163738</v>
+        <v>-0.02121364753450888</v>
       </c>
       <c r="H24">
-        <v>-0.02947784172225719</v>
+        <v>0.02916982887524133</v>
       </c>
       <c r="I24">
-        <v>0.08772679183117102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>0.05344001683130457</v>
+      </c>
+      <c r="J24">
+        <v>0.03705557668748555</v>
+      </c>
+      <c r="K24">
+        <v>-0.07071205513772208</v>
+      </c>
+      <c r="L24">
+        <v>0.009578489438978328</v>
+      </c>
+      <c r="M24">
+        <v>-0.08012987618685971</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>-0.06505655484071032</v>
+        <v>-0.07325050574349576</v>
       </c>
       <c r="C25">
-        <v>-0.04564951549369278</v>
+        <v>-0.04964933134426949</v>
       </c>
       <c r="D25">
-        <v>0.03370121834441749</v>
+        <v>0.02955697515118208</v>
       </c>
       <c r="E25">
-        <v>-0.04659401047575099</v>
+        <v>0.0134518777972964</v>
       </c>
       <c r="F25">
-        <v>0.03946988327858021</v>
+        <v>0.1159300949831175</v>
       </c>
       <c r="G25">
-        <v>-0.02587464454185498</v>
+        <v>-0.03761043142497474</v>
       </c>
       <c r="H25">
-        <v>0.005277149371233109</v>
+        <v>0.04653417826012528</v>
       </c>
       <c r="I25">
-        <v>0.07969823332547281</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>0.06021927623694609</v>
+      </c>
+      <c r="J25">
+        <v>0.03131205100463753</v>
+      </c>
+      <c r="K25">
+        <v>-0.08304532203961307</v>
+      </c>
+      <c r="L25">
+        <v>0.02883676271272308</v>
+      </c>
+      <c r="M25">
+        <v>-0.07665340575185871</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>-0.03661120112696768</v>
+        <v>-0.04168918514701902</v>
       </c>
       <c r="C26">
-        <v>-0.0318335450738038</v>
+        <v>-0.02248922046844406</v>
       </c>
       <c r="D26">
-        <v>0.03755997342742749</v>
+        <v>-0.01244828274931945</v>
       </c>
       <c r="E26">
-        <v>0.002832784174689048</v>
+        <v>0.002735152903525406</v>
       </c>
       <c r="F26">
-        <v>-0.01639159335784016</v>
+        <v>0.03303326965510621</v>
       </c>
       <c r="G26">
-        <v>-0.0251357744756129</v>
+        <v>-0.008044166997806015</v>
       </c>
       <c r="H26">
-        <v>-0.01045116783834158</v>
+        <v>0.03624901108039188</v>
       </c>
       <c r="I26">
-        <v>0.04553395241708448</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>0.01189649854530628</v>
+      </c>
+      <c r="J26">
+        <v>0.01164815451521197</v>
+      </c>
+      <c r="K26">
+        <v>0.08098286076306038</v>
+      </c>
+      <c r="L26">
+        <v>-0.1429721861033071</v>
+      </c>
+      <c r="M26">
+        <v>0.03274037380804269</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1489,271 +1813,391 @@
       <c r="I27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>-0.1227226725400632</v>
+        <v>-0.1445380359280186</v>
       </c>
       <c r="C28">
-        <v>0.2964294029306015</v>
+        <v>0.2880133645480968</v>
       </c>
       <c r="D28">
-        <v>0.03648388505273937</v>
+        <v>0.005933372547490735</v>
       </c>
       <c r="E28">
-        <v>-0.001766596890862581</v>
+        <v>0.02738407275439453</v>
       </c>
       <c r="F28">
-        <v>-0.04843617912911005</v>
+        <v>-0.002762241539607512</v>
       </c>
       <c r="G28">
-        <v>0.03859209979511494</v>
+        <v>0.0165314313321866</v>
       </c>
       <c r="H28">
-        <v>-0.0274289475166117</v>
+        <v>-0.01730415417837454</v>
       </c>
       <c r="I28">
-        <v>0.04212588198334174</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>0.006001622450706861</v>
+      </c>
+      <c r="J28">
+        <v>-0.01240033454025889</v>
+      </c>
+      <c r="K28">
+        <v>-0.006359424440269375</v>
+      </c>
+      <c r="L28">
+        <v>-0.03973471868866051</v>
+      </c>
+      <c r="M28">
+        <v>0.03843625588922064</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>-0.04902873582548002</v>
+        <v>-0.04475548172974954</v>
       </c>
       <c r="C29">
-        <v>-0.0158268691100645</v>
+        <v>-0.0234021308966954</v>
       </c>
       <c r="D29">
-        <v>0.00901156176276147</v>
+        <v>-0.003565953291657928</v>
       </c>
       <c r="E29">
-        <v>-0.02280963880312341</v>
+        <v>0.01924451566836283</v>
       </c>
       <c r="F29">
-        <v>-0.006181506186638906</v>
+        <v>0.04645227118067219</v>
       </c>
       <c r="G29">
-        <v>-0.01744403577940049</v>
+        <v>-0.03562018089817308</v>
       </c>
       <c r="H29">
-        <v>0.03589509034456305</v>
+        <v>0.05274472198367286</v>
       </c>
       <c r="I29">
-        <v>0.01738200420806691</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>0.01934788272682398</v>
+      </c>
+      <c r="J29">
+        <v>-0.01288047200788793</v>
+      </c>
+      <c r="K29">
+        <v>0.0443022597241808</v>
+      </c>
+      <c r="L29">
+        <v>-0.03828144326797044</v>
+      </c>
+      <c r="M29">
+        <v>0.03336051879934291</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>-0.1230843405398167</v>
+        <v>-0.09654300498078225</v>
       </c>
       <c r="C30">
-        <v>-0.08043689776610785</v>
+        <v>-0.06526512719109544</v>
       </c>
       <c r="D30">
-        <v>0.06096232191199737</v>
+        <v>-0.006731522066802355</v>
       </c>
       <c r="E30">
-        <v>-0.06415257152557509</v>
+        <v>0.02504216568159297</v>
       </c>
       <c r="F30">
-        <v>-0.01870276431169227</v>
+        <v>0.1719050344050018</v>
       </c>
       <c r="G30">
-        <v>0.01021594707962302</v>
+        <v>-0.05589490384934199</v>
       </c>
       <c r="H30">
-        <v>-0.01710003473486887</v>
+        <v>-0.0134381957147712</v>
       </c>
       <c r="I30">
-        <v>0.1093865292915921</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>0.2755342731572349</v>
+      </c>
+      <c r="J30">
+        <v>-0.04730695063627893</v>
+      </c>
+      <c r="K30">
+        <v>0.01020006944411269</v>
+      </c>
+      <c r="L30">
+        <v>-0.1834515052853788</v>
+      </c>
+      <c r="M30">
+        <v>0.1736423671247241</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>-0.04504183160651873</v>
+        <v>-0.03506427784018526</v>
       </c>
       <c r="C31">
-        <v>-0.02133726870850293</v>
+        <v>-0.04494608011577222</v>
       </c>
       <c r="D31">
-        <v>-0.00706416569881895</v>
+        <v>-0.0072241049757836</v>
       </c>
       <c r="E31">
-        <v>0.01074290186503357</v>
+        <v>-0.009281232621733327</v>
       </c>
       <c r="F31">
-        <v>-0.02608554089585313</v>
+        <v>0.0147172139033893</v>
       </c>
       <c r="G31">
-        <v>-0.04079697479034176</v>
+        <v>-0.02840777415159672</v>
       </c>
       <c r="H31">
-        <v>-0.007375319718328647</v>
+        <v>0.04597522850314107</v>
       </c>
       <c r="I31">
-        <v>0.008435899292461213</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>-0.01330148252900301</v>
+      </c>
+      <c r="J31">
+        <v>-0.02548861392191307</v>
+      </c>
+      <c r="K31">
+        <v>-0.007268729761268571</v>
+      </c>
+      <c r="L31">
+        <v>-0.01994958776373876</v>
+      </c>
+      <c r="M31">
+        <v>-0.0009151351092602387</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>-0.02219074340153581</v>
+        <v>-0.04457959329712868</v>
       </c>
       <c r="C32">
-        <v>0.0005592999094496433</v>
+        <v>0.0035427120662338</v>
       </c>
       <c r="D32">
-        <v>-0.02953729294232683</v>
+        <v>0.003309567249177589</v>
       </c>
       <c r="E32">
-        <v>-0.07845245290107235</v>
+        <v>0.0009009128984811944</v>
       </c>
       <c r="F32">
-        <v>0.03443751549698078</v>
+        <v>0.07819422183137907</v>
       </c>
       <c r="G32">
-        <v>-0.01913043667154699</v>
+        <v>0.03229625929865747</v>
       </c>
       <c r="H32">
-        <v>-0.04450022748379596</v>
+        <v>0.04772249506577304</v>
       </c>
       <c r="I32">
-        <v>0.07106427906627281</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>-0.06941546057310477</v>
+      </c>
+      <c r="J32">
+        <v>0.02073851549876981</v>
+      </c>
+      <c r="K32">
+        <v>-0.02693589439594901</v>
+      </c>
+      <c r="L32">
+        <v>-0.04732533848625885</v>
+      </c>
+      <c r="M32">
+        <v>0.1244453358174147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>-0.100273819727022</v>
+        <v>-0.09775123696243196</v>
       </c>
       <c r="C33">
-        <v>-0.05976221729670998</v>
+        <v>-0.06671085244112379</v>
       </c>
       <c r="D33">
-        <v>-0.001596943855266961</v>
+        <v>0.007455405021750017</v>
       </c>
       <c r="E33">
-        <v>0.0003709764137825796</v>
+        <v>-0.01855430989981314</v>
       </c>
       <c r="F33">
-        <v>0.01120463746457784</v>
+        <v>0.06622378116338574</v>
       </c>
       <c r="G33">
-        <v>-0.04721586243101649</v>
+        <v>-0.03224419054393266</v>
       </c>
       <c r="H33">
-        <v>-0.02458819918888459</v>
+        <v>0.0546541984714345</v>
       </c>
       <c r="I33">
-        <v>0.04175766421779244</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>0.0328098496850405</v>
+      </c>
+      <c r="J33">
+        <v>0.007173938728232327</v>
+      </c>
+      <c r="K33">
+        <v>0.03775859099561979</v>
+      </c>
+      <c r="L33">
+        <v>-0.01876349680227217</v>
+      </c>
+      <c r="M33">
+        <v>-0.01379561846663386</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>-0.05175844400172921</v>
+        <v>-0.06277255193512267</v>
       </c>
       <c r="C34">
-        <v>-0.08266129571535502</v>
+        <v>-0.06313702193890765</v>
       </c>
       <c r="D34">
-        <v>0.02060182659275744</v>
+        <v>0.02468535799900539</v>
       </c>
       <c r="E34">
-        <v>-0.03841444140209072</v>
+        <v>0.01060949987167907</v>
       </c>
       <c r="F34">
-        <v>0.02244546578447717</v>
+        <v>0.09683070053695637</v>
       </c>
       <c r="G34">
-        <v>-0.01321104413669554</v>
+        <v>-0.02400757516224769</v>
       </c>
       <c r="H34">
-        <v>-0.02310357344570181</v>
+        <v>0.05069226693153025</v>
       </c>
       <c r="I34">
-        <v>0.08657121099978543</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>0.0394449272131927</v>
+      </c>
+      <c r="J34">
+        <v>0.02736999340281092</v>
+      </c>
+      <c r="K34">
+        <v>-0.05784486418507423</v>
+      </c>
+      <c r="L34">
+        <v>0.001598044951254001</v>
+      </c>
+      <c r="M34">
+        <v>-0.09854517037504736</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>-0.03759369898069771</v>
+        <v>-0.02583778035658836</v>
       </c>
       <c r="C35">
-        <v>-0.03539196110579019</v>
+        <v>-0.02427172199995975</v>
       </c>
       <c r="D35">
-        <v>0.006301482750541319</v>
+        <v>-0.002609975815280198</v>
       </c>
       <c r="E35">
-        <v>-0.0099055090152021</v>
+        <v>-0.002809159818913688</v>
       </c>
       <c r="F35">
-        <v>0.00370830120874968</v>
+        <v>0.01717601182378884</v>
       </c>
       <c r="G35">
-        <v>-0.02645698321845905</v>
+        <v>-0.02230967236853617</v>
       </c>
       <c r="H35">
-        <v>-0.00523266194898223</v>
+        <v>0.03643532939800068</v>
       </c>
       <c r="I35">
-        <v>0.05633130463541824</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>0.04894389819851482</v>
+      </c>
+      <c r="J35">
+        <v>0.02048177365063494</v>
+      </c>
+      <c r="K35">
+        <v>-0.01740005901338184</v>
+      </c>
+      <c r="L35">
+        <v>-0.06456223047903331</v>
+      </c>
+      <c r="M35">
+        <v>0.01429708377276059</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>-0.02720080869827027</v>
+        <v>-0.02903693440629615</v>
       </c>
       <c r="C36">
-        <v>-0.02189277941082508</v>
+        <v>-0.02070007690130502</v>
       </c>
       <c r="D36">
-        <v>0.02471904901512033</v>
+        <v>-0.01516609011048694</v>
       </c>
       <c r="E36">
-        <v>-0.01694555609804011</v>
+        <v>0.01328882257880399</v>
       </c>
       <c r="F36">
-        <v>0.002522854291224057</v>
+        <v>0.06162726587982783</v>
       </c>
       <c r="G36">
-        <v>-0.03443498535584715</v>
+        <v>-0.01444446052938185</v>
       </c>
       <c r="H36">
-        <v>0.01516425832863197</v>
+        <v>0.04411851922308931</v>
       </c>
       <c r="I36">
-        <v>0.0561162386275964</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>0.03673515322913607</v>
+      </c>
+      <c r="J36">
+        <v>-0.01818104202050026</v>
+      </c>
+      <c r="K36">
+        <v>0.02928476998545154</v>
+      </c>
+      <c r="L36">
+        <v>-0.04740154426529101</v>
+      </c>
+      <c r="M36">
+        <v>-0.0248201649282728</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1779,126 +2223,186 @@
       <c r="I37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>-0.03932171741951832</v>
+        <v>-0.0306824484070978</v>
       </c>
       <c r="C38">
-        <v>-0.0307291867311741</v>
+        <v>-0.04782348953931635</v>
       </c>
       <c r="D38">
-        <v>-0.02647534431557231</v>
+        <v>-0.02330683250589853</v>
       </c>
       <c r="E38">
-        <v>-0.03503120991299028</v>
+        <v>0.001918267124703708</v>
       </c>
       <c r="F38">
-        <v>0.006822022038812678</v>
+        <v>-0.04428336640613319</v>
       </c>
       <c r="G38">
-        <v>-0.008841601331715469</v>
+        <v>-0.04812102093962334</v>
       </c>
       <c r="H38">
-        <v>-0.04145964106807416</v>
+        <v>-0.04392857959662625</v>
       </c>
       <c r="I38">
-        <v>0.05736198967096891</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>-0.01166950268450215</v>
+      </c>
+      <c r="J38">
+        <v>0.07663694298295577</v>
+      </c>
+      <c r="K38">
+        <v>0.08518842537712797</v>
+      </c>
+      <c r="L38">
+        <v>-0.0731404041625367</v>
+      </c>
+      <c r="M38">
+        <v>0.09639351876243341</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>-0.09355260521884802</v>
+        <v>-0.09805035466624491</v>
       </c>
       <c r="C39">
-        <v>-0.104684750618827</v>
+        <v>-0.08945579765477417</v>
       </c>
       <c r="D39">
-        <v>0.01216580238740147</v>
+        <v>0.08049083261760341</v>
       </c>
       <c r="E39">
-        <v>-0.02523028191784553</v>
+        <v>-0.01761744850309483</v>
       </c>
       <c r="F39">
-        <v>0.04413376833911126</v>
+        <v>0.1486395041871334</v>
       </c>
       <c r="G39">
-        <v>0.01905242273040615</v>
+        <v>-0.09582957854659199</v>
       </c>
       <c r="H39">
-        <v>-0.08546076171367499</v>
+        <v>-0.01009910152582374</v>
       </c>
       <c r="I39">
-        <v>0.1761114357473012</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>0.1276651751768965</v>
+      </c>
+      <c r="J39">
+        <v>0.07060783813341538</v>
+      </c>
+      <c r="K39">
+        <v>-0.1967820652544078</v>
+      </c>
+      <c r="L39">
+        <v>-0.03519630184140103</v>
+      </c>
+      <c r="M39">
+        <v>0.04625976690973577</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>-0.05594456540202451</v>
+        <v>-0.03477176635389303</v>
       </c>
       <c r="C40">
-        <v>-0.04953543000331846</v>
+        <v>-0.058556259515245</v>
       </c>
       <c r="D40">
-        <v>-0.04594576276653256</v>
+        <v>-0.05176791548357136</v>
       </c>
       <c r="E40">
-        <v>-0.1400649931932831</v>
+        <v>-0.005913890184598527</v>
       </c>
       <c r="F40">
-        <v>0.02906182330600995</v>
+        <v>0.1204889627992849</v>
       </c>
       <c r="G40">
-        <v>-0.04013082806572534</v>
+        <v>0.06094987748617993</v>
       </c>
       <c r="H40">
-        <v>-0.09717333524176149</v>
+        <v>0.01559063224467089</v>
       </c>
       <c r="I40">
-        <v>0.2271223220626839</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>0.01138163351750664</v>
+      </c>
+      <c r="J40">
+        <v>0.1123603669252356</v>
+      </c>
+      <c r="K40">
+        <v>0.05788082820771993</v>
+      </c>
+      <c r="L40">
+        <v>-0.1034923121251454</v>
+      </c>
+      <c r="M40">
+        <v>-0.005380513997932726</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>-0.04236665452970938</v>
+        <v>-0.03465758949039292</v>
       </c>
       <c r="C41">
-        <v>-0.05375448795529798</v>
+        <v>-0.03619283203934209</v>
       </c>
       <c r="D41">
-        <v>0.009489061938145698</v>
+        <v>0.01753321417432401</v>
       </c>
       <c r="E41">
-        <v>0.005285467005983746</v>
+        <v>-0.002154183196932254</v>
       </c>
       <c r="F41">
-        <v>0.01417143435350677</v>
+        <v>0.0158528327252032</v>
       </c>
       <c r="G41">
-        <v>-0.02494042449841219</v>
+        <v>-0.02918988958305788</v>
       </c>
       <c r="H41">
-        <v>-0.02299719292765929</v>
+        <v>0.007433357351716204</v>
       </c>
       <c r="I41">
-        <v>0.06164240202245027</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>-0.01330265530590111</v>
+      </c>
+      <c r="J41">
+        <v>0.01463515482860169</v>
+      </c>
+      <c r="K41">
+        <v>0.005116199659064108</v>
+      </c>
+      <c r="L41">
+        <v>-0.0436752357749032</v>
+      </c>
+      <c r="M41">
+        <v>-0.02656759967175851</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1924,68 +2428,104 @@
       <c r="I42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>-0.05552749247618923</v>
+        <v>-0.05016987576859071</v>
       </c>
       <c r="C43">
-        <v>-0.04558150419285171</v>
+        <v>-0.04706888703333339</v>
       </c>
       <c r="D43">
-        <v>0.02715900862366524</v>
+        <v>-0.01303577947472945</v>
       </c>
       <c r="E43">
-        <v>-0.01696953229166876</v>
+        <v>0.01275770801864224</v>
       </c>
       <c r="F43">
-        <v>-0.01375044889659562</v>
+        <v>0.01230425003821384</v>
       </c>
       <c r="G43">
-        <v>-0.02091484954688468</v>
+        <v>-0.06265629992498625</v>
       </c>
       <c r="H43">
-        <v>-0.03295684413307425</v>
+        <v>-7.524635757162069e-05</v>
       </c>
       <c r="I43">
-        <v>0.01323547549666529</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>0.00155252141074886</v>
+      </c>
+      <c r="J43">
+        <v>0.005884905461501864</v>
+      </c>
+      <c r="K43">
+        <v>-0.01142009273579712</v>
+      </c>
+      <c r="L43">
+        <v>-0.03433040103896418</v>
+      </c>
+      <c r="M43">
+        <v>-0.01895403106137693</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>-0.05269978368614733</v>
+        <v>-0.08346007570038587</v>
       </c>
       <c r="C44">
-        <v>-0.02928017164607477</v>
+        <v>-0.06075635805239023</v>
       </c>
       <c r="D44">
-        <v>0.067711011060998</v>
+        <v>-0.07098482542643751</v>
       </c>
       <c r="E44">
-        <v>-0.1280692412169996</v>
+        <v>0.09462942836594383</v>
       </c>
       <c r="F44">
-        <v>0.04408591673407079</v>
+        <v>0.1569965504328235</v>
       </c>
       <c r="G44">
-        <v>-0.02470559320301573</v>
+        <v>-0.01346182760031721</v>
       </c>
       <c r="H44">
-        <v>-0.00819716132002276</v>
+        <v>0.07597936365577646</v>
       </c>
       <c r="I44">
-        <v>0.1349412275242351</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>0.04758136316824972</v>
+      </c>
+      <c r="J44">
+        <v>0.06250114848699835</v>
+      </c>
+      <c r="K44">
+        <v>-0.009370495456565587</v>
+      </c>
+      <c r="L44">
+        <v>-0.05808939882342464</v>
+      </c>
+      <c r="M44">
+        <v>0.0499377150396387</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2011,329 +2551,473 @@
       <c r="I45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>-0.02203035629031262</v>
+        <v>-0.03381125026541929</v>
       </c>
       <c r="C46">
-        <v>-0.04241944306789657</v>
+        <v>-0.03809901646531681</v>
       </c>
       <c r="D46">
-        <v>0.01488850006997498</v>
+        <v>-0.04970260262708801</v>
       </c>
       <c r="E46">
-        <v>-0.04681462739551118</v>
+        <v>0.03498208219249521</v>
       </c>
       <c r="F46">
-        <v>0.002134008250228601</v>
+        <v>0.02080865628688837</v>
       </c>
       <c r="G46">
-        <v>0.0001202389151475403</v>
+        <v>0.007396126098744889</v>
       </c>
       <c r="H46">
-        <v>-0.001765458963685331</v>
+        <v>0.06480388271474156</v>
       </c>
       <c r="I46">
-        <v>0.03368818086631595</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>-0.002151734574257482</v>
+      </c>
+      <c r="J46">
+        <v>-0.009633809310301642</v>
+      </c>
+      <c r="K46">
+        <v>0.06529960961883441</v>
+      </c>
+      <c r="L46">
+        <v>-0.06493802327839886</v>
+      </c>
+      <c r="M46">
+        <v>0.002186939771439073</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>-0.02608426361624228</v>
+        <v>-0.04650184557449125</v>
       </c>
       <c r="C47">
-        <v>-0.0009120847868480741</v>
+        <v>-0.02788814436797192</v>
       </c>
       <c r="D47">
-        <v>-0.01528966335897484</v>
+        <v>-0.02223918327251033</v>
       </c>
       <c r="E47">
-        <v>-0.06553704785013369</v>
+        <v>0.006406479262415487</v>
       </c>
       <c r="F47">
-        <v>-0.00238072226707369</v>
+        <v>0.03095021403482819</v>
       </c>
       <c r="G47">
-        <v>-0.0429405700282882</v>
+        <v>-0.02813964114243586</v>
       </c>
       <c r="H47">
-        <v>0.02518833832247688</v>
+        <v>0.02647930885416766</v>
       </c>
       <c r="I47">
-        <v>0.008110317294330201</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>0.03707714802347552</v>
+      </c>
+      <c r="J47">
+        <v>0.001850606192599115</v>
+      </c>
+      <c r="K47">
+        <v>0.04219873745758736</v>
+      </c>
+      <c r="L47">
+        <v>-0.02343395427962679</v>
+      </c>
+      <c r="M47">
+        <v>-0.03358285043777243</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>-0.03125543392008057</v>
+        <v>-0.04192428882237155</v>
       </c>
       <c r="C48">
-        <v>-0.02725472044150923</v>
+        <v>-0.02056122661182866</v>
       </c>
       <c r="D48">
-        <v>0.00434964316831288</v>
+        <v>-0.0150667601134408</v>
       </c>
       <c r="E48">
-        <v>-0.04043242477463881</v>
+        <v>0.001478998892803974</v>
       </c>
       <c r="F48">
-        <v>-0.01577267804378729</v>
+        <v>0.06660806956362421</v>
       </c>
       <c r="G48">
-        <v>-0.04632423121299362</v>
+        <v>0.01972545761347636</v>
       </c>
       <c r="H48">
-        <v>-0.01883194418489803</v>
+        <v>0.05510068263432127</v>
       </c>
       <c r="I48">
-        <v>0.02598314137023791</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>0.03533077163256593</v>
+      </c>
+      <c r="J48">
+        <v>-0.01295572581323658</v>
+      </c>
+      <c r="K48">
+        <v>-0.003961183818791531</v>
+      </c>
+      <c r="L48">
+        <v>-0.0558126646848447</v>
+      </c>
+      <c r="M48">
+        <v>-0.02845035314413279</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>-0.1910846124912469</v>
+        <v>-0.2251703630969002</v>
       </c>
       <c r="C49">
-        <v>-0.1256525280900779</v>
+        <v>-0.08571817692203845</v>
       </c>
       <c r="D49">
-        <v>0.0786878348737052</v>
+        <v>0.06448546904356689</v>
       </c>
       <c r="E49">
-        <v>0.06732640939896326</v>
+        <v>0.0318551977382358</v>
       </c>
       <c r="F49">
-        <v>-0.1114339141029975</v>
+        <v>-0.2273553242916588</v>
       </c>
       <c r="G49">
-        <v>0.168365383722477</v>
+        <v>0.1543578793225577</v>
       </c>
       <c r="H49">
-        <v>0.02422267071509447</v>
+        <v>-0.0407448232269187</v>
       </c>
       <c r="I49">
-        <v>0.02822917919226364</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>0.1103979373235666</v>
+      </c>
+      <c r="J49">
+        <v>0.1425914805951973</v>
+      </c>
+      <c r="K49">
+        <v>-0.09037056665873527</v>
+      </c>
+      <c r="L49">
+        <v>0.1399744402705866</v>
+      </c>
+      <c r="M49">
+        <v>-0.08426142291097886</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>-0.05194617853376198</v>
+        <v>-0.04270830051751798</v>
       </c>
       <c r="C50">
-        <v>-0.02988197035193953</v>
+        <v>-0.04219197983451675</v>
       </c>
       <c r="D50">
-        <v>0.003484753443614713</v>
+        <v>-0.003805048172459408</v>
       </c>
       <c r="E50">
-        <v>-0.01675392708257516</v>
+        <v>-0.008702601994474878</v>
       </c>
       <c r="F50">
-        <v>-0.0107207174766463</v>
+        <v>0.04096307300293562</v>
       </c>
       <c r="G50">
-        <v>-0.07525584029789242</v>
+        <v>-0.03892533851205437</v>
       </c>
       <c r="H50">
-        <v>0.03296095581042601</v>
+        <v>0.04291666926852272</v>
       </c>
       <c r="I50">
-        <v>6.009636857367735e-05</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>0.01066388537944498</v>
+      </c>
+      <c r="J50">
+        <v>-0.03372215330364649</v>
+      </c>
+      <c r="K50">
+        <v>0.03928602111081644</v>
+      </c>
+      <c r="L50">
+        <v>-0.02422413825675554</v>
+      </c>
+      <c r="M50">
+        <v>0.04148310460509356</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>-0.02458845573530908</v>
+        <v>-0.02972723458611074</v>
       </c>
       <c r="C51">
-        <v>-0.01496750852627137</v>
+        <v>-0.005653908359853065</v>
       </c>
       <c r="D51">
-        <v>-0.008321340127476791</v>
+        <v>0.0008050720463854795</v>
       </c>
       <c r="E51">
-        <v>-0.01112437188277073</v>
+        <v>0.0169722815620465</v>
       </c>
       <c r="F51">
-        <v>0.009785811144125111</v>
+        <v>-0.0176504108399164</v>
       </c>
       <c r="G51">
-        <v>0.03100227143472294</v>
+        <v>-0.002956241896818527</v>
       </c>
       <c r="H51">
-        <v>-0.002830604543229922</v>
+        <v>-0.02269952193407447</v>
       </c>
       <c r="I51">
-        <v>0.01309511252537227</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>0.0125048470600508</v>
+      </c>
+      <c r="J51">
+        <v>0.0263810548298429</v>
+      </c>
+      <c r="K51">
+        <v>-0.06125592577393747</v>
+      </c>
+      <c r="L51">
+        <v>0.05838377320435963</v>
+      </c>
+      <c r="M51">
+        <v>-0.01058577870075471</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.01392323969695575</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.003890950367876642</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.01627522502368185</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.005012458247968346</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.004057265063007958</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>-0.002902031971474927</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>-0.007952602328835344</v>
       </c>
       <c r="I52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>0.003165203467245761</v>
+      </c>
+      <c r="J52">
+        <v>-0.00402349291333151</v>
+      </c>
+      <c r="K52">
+        <v>-0.01906322125404829</v>
+      </c>
+      <c r="L52">
+        <v>-0.004613840229658633</v>
+      </c>
+      <c r="M52">
+        <v>0.03866387117099206</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>-0.1658195294083994</v>
+        <v>-0.1542704804615304</v>
       </c>
       <c r="C53">
-        <v>-0.01970131548387355</v>
+        <v>-0.04695467953804643</v>
       </c>
       <c r="D53">
-        <v>0.02326428771988582</v>
+        <v>0.01632523231946657</v>
       </c>
       <c r="E53">
-        <v>0.08154827210226442</v>
+        <v>-0.007012104060387855</v>
       </c>
       <c r="F53">
-        <v>0.1546492394029308</v>
+        <v>-0.06901820835951712</v>
       </c>
       <c r="G53">
-        <v>-0.2149083542508815</v>
+        <v>-0.2087717799497893</v>
       </c>
       <c r="H53">
-        <v>-0.00193138286494248</v>
+        <v>0.0445065662011391</v>
       </c>
       <c r="I53">
-        <v>-0.05487675464956376</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>-0.1081658695952851</v>
+      </c>
+      <c r="J53">
+        <v>-0.03517782036735372</v>
+      </c>
+      <c r="K53">
+        <v>0.08536933136442663</v>
+      </c>
+      <c r="L53">
+        <v>0.07699878258894421</v>
+      </c>
+      <c r="M53">
+        <v>0.1107851558304335</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>-0.0511978311427972</v>
+        <v>-0.0601583697242746</v>
       </c>
       <c r="C54">
-        <v>-0.03645209365950837</v>
+        <v>-0.0335221374464606</v>
       </c>
       <c r="D54">
-        <v>0.03360406600086265</v>
+        <v>-0.02309913653318794</v>
       </c>
       <c r="E54">
-        <v>-0.03641381540869737</v>
+        <v>0.02636999901880368</v>
       </c>
       <c r="F54">
-        <v>0.006588826495759938</v>
+        <v>0.1043827082406051</v>
       </c>
       <c r="G54">
-        <v>-0.0344791284121277</v>
+        <v>0.01500516234450739</v>
       </c>
       <c r="H54">
-        <v>-0.01054557367819161</v>
+        <v>0.05863132912654197</v>
       </c>
       <c r="I54">
-        <v>0.02559697745312641</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>-0.0102295032521397</v>
+      </c>
+      <c r="J54">
+        <v>-0.06569199466852291</v>
+      </c>
+      <c r="K54">
+        <v>0.05558877123217833</v>
+      </c>
+      <c r="L54">
+        <v>-0.1103910350928049</v>
+      </c>
+      <c r="M54">
+        <v>-0.00451704288470149</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>-0.09178720362474375</v>
+        <v>-0.08602984814349542</v>
       </c>
       <c r="C55">
-        <v>-0.007167481312588028</v>
+        <v>-0.03705694676872538</v>
       </c>
       <c r="D55">
-        <v>0.0198625353966028</v>
+        <v>0.02688713616435776</v>
       </c>
       <c r="E55">
-        <v>0.01351954211776614</v>
+        <v>0.004622165303039077</v>
       </c>
       <c r="F55">
-        <v>0.1282931172915923</v>
+        <v>0.005780664113793077</v>
       </c>
       <c r="G55">
-        <v>-0.1966097142099866</v>
+        <v>-0.1432040152474315</v>
       </c>
       <c r="H55">
-        <v>0.02298613196660789</v>
+        <v>0.05152755834016099</v>
       </c>
       <c r="I55">
-        <v>-0.05002020284878626</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>-0.0697513619526761</v>
+      </c>
+      <c r="J55">
+        <v>-0.02299384342724996</v>
+      </c>
+      <c r="K55">
+        <v>0.05708759818717304</v>
+      </c>
+      <c r="L55">
+        <v>0.05718036444367937</v>
+      </c>
+      <c r="M55">
+        <v>0.04231451192407088</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>-0.1665665833404301</v>
+        <v>-0.1497912017382205</v>
       </c>
       <c r="C56">
-        <v>-0.02109067847874305</v>
+        <v>-0.06954315478961767</v>
       </c>
       <c r="D56">
-        <v>0.04665002061168046</v>
+        <v>0.03236649415522186</v>
       </c>
       <c r="E56">
-        <v>0.0755754357596907</v>
+        <v>0.009178115174716284</v>
       </c>
       <c r="F56">
-        <v>0.1266018636345982</v>
+        <v>-0.03912870838217205</v>
       </c>
       <c r="G56">
-        <v>-0.2004451943049018</v>
+        <v>-0.2084085838587995</v>
       </c>
       <c r="H56">
-        <v>-0.007652910067393085</v>
+        <v>0.01831823997827553</v>
       </c>
       <c r="I56">
-        <v>-0.1154268625603583</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>-0.1341468247496694</v>
+      </c>
+      <c r="J56">
+        <v>-0.01895718287297436</v>
+      </c>
+      <c r="K56">
+        <v>0.08983767350254783</v>
+      </c>
+      <c r="L56">
+        <v>0.06754799577834747</v>
+      </c>
+      <c r="M56">
+        <v>0.06255053538102021</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2359,1112 +3043,1580 @@
       <c r="I57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>-0.0400631308436708</v>
+        <v>-0.03724227734214438</v>
       </c>
       <c r="C58">
-        <v>-0.04952111923210831</v>
+        <v>-0.03354330822043267</v>
       </c>
       <c r="D58">
-        <v>0.003783971431831134</v>
+        <v>-0.08548289142256472</v>
       </c>
       <c r="E58">
-        <v>-0.3209763937711989</v>
+        <v>0.02376178926592454</v>
       </c>
       <c r="F58">
-        <v>-0.2233127377805145</v>
+        <v>0.03695754762714468</v>
       </c>
       <c r="G58">
-        <v>-0.01190267547114023</v>
+        <v>0.04668799370658334</v>
       </c>
       <c r="H58">
-        <v>0.1567849609160151</v>
+        <v>0.04879292039702593</v>
       </c>
       <c r="I58">
-        <v>0.1991727408471561</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>0.280929244682997</v>
+      </c>
+      <c r="J58">
+        <v>-0.1326011394159312</v>
+      </c>
+      <c r="K58">
+        <v>-0.2575210775987891</v>
+      </c>
+      <c r="L58">
+        <v>-0.04706142338894431</v>
+      </c>
+      <c r="M58">
+        <v>-0.2065608795915559</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>-0.2536892517316727</v>
+        <v>-0.2300724780195859</v>
       </c>
       <c r="C59">
-        <v>0.3992096829537675</v>
+        <v>0.2988472860205343</v>
       </c>
       <c r="D59">
-        <v>0.03644929166008887</v>
+        <v>0.03986776120239686</v>
       </c>
       <c r="E59">
-        <v>-0.03766420108817381</v>
+        <v>0.005151628447631524</v>
       </c>
       <c r="F59">
-        <v>0.0696957708216589</v>
+        <v>0.02332100065962244</v>
       </c>
       <c r="G59">
-        <v>0.002515919823010424</v>
+        <v>-0.05726721007628992</v>
       </c>
       <c r="H59">
-        <v>-0.07631561345865757</v>
+        <v>-0.02576875772089828</v>
       </c>
       <c r="I59">
-        <v>0.0178442480408523</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>-0.1232433190332551</v>
+      </c>
+      <c r="J59">
+        <v>0.01995007191672309</v>
+      </c>
+      <c r="K59">
+        <v>-0.06024671418416273</v>
+      </c>
+      <c r="L59">
+        <v>0.0385174227309041</v>
+      </c>
+      <c r="M59">
+        <v>0.004207551789861314</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>-0.2485525248876563</v>
+        <v>-0.2439779888155726</v>
       </c>
       <c r="C60">
-        <v>-0.07813442516358933</v>
+        <v>-0.119710881953797</v>
       </c>
       <c r="D60">
-        <v>0.09641093176265576</v>
+        <v>0.06472946845206531</v>
       </c>
       <c r="E60">
-        <v>-0.02426194360757659</v>
+        <v>0.04770307189002993</v>
       </c>
       <c r="F60">
-        <v>-0.03473218177792732</v>
+        <v>-0.09322291972072143</v>
       </c>
       <c r="G60">
-        <v>0.06763498407897475</v>
+        <v>0.04649960608185</v>
       </c>
       <c r="H60">
-        <v>0.06514267678201008</v>
+        <v>-0.09908169653193311</v>
       </c>
       <c r="I60">
-        <v>-0.1577496890222608</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>0.02229285722170316</v>
+      </c>
+      <c r="J60">
+        <v>-0.0475782562939873</v>
+      </c>
+      <c r="K60">
+        <v>0.04495273813046321</v>
+      </c>
+      <c r="L60">
+        <v>0.2249327206913247</v>
+      </c>
+      <c r="M60">
+        <v>0.01334787471180036</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>-0.08286792603211297</v>
+        <v>-0.09178227624472161</v>
       </c>
       <c r="C61">
-        <v>-0.06241176174173883</v>
+        <v>-0.06492447271823805</v>
       </c>
       <c r="D61">
-        <v>0.01868900112436288</v>
+        <v>0.04212153782775763</v>
       </c>
       <c r="E61">
-        <v>-0.004725045234780411</v>
+        <v>0.01057855038962833</v>
       </c>
       <c r="F61">
-        <v>0.01203158830365799</v>
+        <v>0.1126079857846202</v>
       </c>
       <c r="G61">
-        <v>-0.01047831429693191</v>
+        <v>-0.08371230376727409</v>
       </c>
       <c r="H61">
-        <v>-0.04331540902106717</v>
+        <v>0.02066465734462113</v>
       </c>
       <c r="I61">
-        <v>0.08024248484898423</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>0.0493947641022446</v>
+      </c>
+      <c r="J61">
+        <v>0.03927511853529959</v>
+      </c>
+      <c r="K61">
+        <v>-0.07627070093143828</v>
+      </c>
+      <c r="L61">
+        <v>-0.05074660872193088</v>
+      </c>
+      <c r="M61">
+        <v>0.02054106532166518</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>-0.1666857792694035</v>
+        <v>-0.1424899521960413</v>
       </c>
       <c r="C62">
-        <v>-0.06216369108177824</v>
+        <v>-0.07622581028135425</v>
       </c>
       <c r="D62">
-        <v>0.01286768528188987</v>
+        <v>0.03398055857447032</v>
       </c>
       <c r="E62">
-        <v>0.1230173765981698</v>
+        <v>-0.03319007466669356</v>
       </c>
       <c r="F62">
-        <v>0.1847230906744002</v>
+        <v>-0.03286305918809861</v>
       </c>
       <c r="G62">
-        <v>-0.1633089210765991</v>
+        <v>-0.1609005532763685</v>
       </c>
       <c r="H62">
-        <v>-0.03167572630620589</v>
+        <v>0.06156588606357265</v>
       </c>
       <c r="I62">
-        <v>-0.06956371464748402</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>-0.1318439157037788</v>
+      </c>
+      <c r="J62">
+        <v>-0.0002542152580761919</v>
+      </c>
+      <c r="K62">
+        <v>0.1535504246935474</v>
+      </c>
+      <c r="L62">
+        <v>0.03888909644292404</v>
+      </c>
+      <c r="M62">
+        <v>0.01956950350119461</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>-0.04381226337277823</v>
+        <v>-0.04532026609470882</v>
       </c>
       <c r="C63">
-        <v>-0.03824297031412925</v>
+        <v>-0.02678046081082591</v>
       </c>
       <c r="D63">
-        <v>0.01585806075311986</v>
+        <v>0.005338202651655499</v>
       </c>
       <c r="E63">
-        <v>-0.008287538648832582</v>
+        <v>-0.01193823581599158</v>
       </c>
       <c r="F63">
-        <v>0.01265551279867729</v>
+        <v>0.05864279073947478</v>
       </c>
       <c r="G63">
-        <v>-0.03633296451248785</v>
+        <v>-0.01063889712364318</v>
       </c>
       <c r="H63">
-        <v>0.05140126162061798</v>
+        <v>0.03153751842908053</v>
       </c>
       <c r="I63">
-        <v>0.04324813601300668</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>0.04528407962069191</v>
+      </c>
+      <c r="J63">
+        <v>-0.02415232445328089</v>
+      </c>
+      <c r="K63">
+        <v>0.01863788122008117</v>
+      </c>
+      <c r="L63">
+        <v>-0.0223690503802059</v>
+      </c>
+      <c r="M63">
+        <v>0.001939629022423192</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>-0.1002443025092803</v>
+        <v>-0.09980413048071278</v>
       </c>
       <c r="C64">
-        <v>-0.03206493698927734</v>
+        <v>-0.04754710863146493</v>
       </c>
       <c r="D64">
-        <v>0.03529399103790216</v>
+        <v>-0.00891447278600742</v>
       </c>
       <c r="E64">
-        <v>-0.03877616456825584</v>
+        <v>0.03794605189359644</v>
       </c>
       <c r="F64">
-        <v>-0.01050998973397954</v>
+        <v>0.06112258431244402</v>
       </c>
       <c r="G64">
-        <v>0.006983343980794497</v>
+        <v>-0.01971374517346281</v>
       </c>
       <c r="H64">
-        <v>-0.01721629798581721</v>
+        <v>-0.003208914373288417</v>
       </c>
       <c r="I64">
-        <v>0.07225880157843367</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>0.07505667079287859</v>
+      </c>
+      <c r="J64">
+        <v>0.001128741089682461</v>
+      </c>
+      <c r="K64">
+        <v>-0.0133175415387791</v>
+      </c>
+      <c r="L64">
+        <v>-0.03611109331639925</v>
+      </c>
+      <c r="M64">
+        <v>0.02049781113807602</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>-0.1323931439728523</v>
+        <v>-0.1250954095175985</v>
       </c>
       <c r="C65">
-        <v>-0.07174493952676568</v>
+        <v>-0.04822993520264948</v>
       </c>
       <c r="D65">
-        <v>0.05153287429153826</v>
+        <v>0.005678278430949669</v>
       </c>
       <c r="E65">
-        <v>-0.12830608673796</v>
+        <v>0.002431220118089841</v>
       </c>
       <c r="F65">
-        <v>-0.1314315369968075</v>
+        <v>0.06647536003405184</v>
       </c>
       <c r="G65">
-        <v>0.03383117305219471</v>
+        <v>0.1927769842213262</v>
       </c>
       <c r="H65">
-        <v>0.5880836396653771</v>
+        <v>-0.06578604677275947</v>
       </c>
       <c r="I65">
-        <v>-0.2561180720579416</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>0.220688450599053</v>
+      </c>
+      <c r="J65">
+        <v>-0.4661227546264561</v>
+      </c>
+      <c r="K65">
+        <v>0.3821030516191784</v>
+      </c>
+      <c r="L65">
+        <v>0.1956949265830581</v>
+      </c>
+      <c r="M65">
+        <v>0.04396725356999411</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>-0.1544091512106437</v>
+        <v>-0.1268212921756587</v>
       </c>
       <c r="C66">
-        <v>-0.1519891766568248</v>
+        <v>-0.1325518750403549</v>
       </c>
       <c r="D66">
-        <v>0.033228072360081</v>
+        <v>0.1036241376833284</v>
       </c>
       <c r="E66">
-        <v>0.01819708278850484</v>
+        <v>-0.02913629493590193</v>
       </c>
       <c r="F66">
-        <v>0.09168157327016144</v>
+        <v>0.1630703081670512</v>
       </c>
       <c r="G66">
-        <v>0.04346385793216001</v>
+        <v>-0.1009522626109827</v>
       </c>
       <c r="H66">
-        <v>-0.164659641406984</v>
+        <v>0.0007897788194081564</v>
       </c>
       <c r="I66">
-        <v>0.3727812704501615</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>0.1096698050646423</v>
+      </c>
+      <c r="J66">
+        <v>0.1455916788943506</v>
+      </c>
+      <c r="K66">
+        <v>-0.1997030998213339</v>
+      </c>
+      <c r="L66">
+        <v>-0.03583689485837509</v>
+      </c>
+      <c r="M66">
+        <v>0.07229264386390899</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>-0.07632790289570325</v>
+        <v>-0.08186301245868867</v>
       </c>
       <c r="C67">
-        <v>-0.05207796134993484</v>
+        <v>-0.06273164637049954</v>
       </c>
       <c r="D67">
-        <v>0.0001841115321588715</v>
+        <v>-0.0149056210683324</v>
       </c>
       <c r="E67">
-        <v>-0.003327044692512398</v>
+        <v>0.01681917579693454</v>
       </c>
       <c r="F67">
-        <v>0.004160800719660514</v>
+        <v>-0.03522438799281526</v>
       </c>
       <c r="G67">
-        <v>0.01157847177381852</v>
+        <v>-0.08603754037465675</v>
       </c>
       <c r="H67">
-        <v>-0.05750347457594438</v>
+        <v>-0.08528162525180139</v>
       </c>
       <c r="I67">
-        <v>0.05210986195907077</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>-0.02838542248740122</v>
+      </c>
+      <c r="J67">
+        <v>0.1046683899660958</v>
+      </c>
+      <c r="K67">
+        <v>0.04393185101665828</v>
+      </c>
+      <c r="L67">
+        <v>-0.04434050564739656</v>
+      </c>
+      <c r="M67">
+        <v>0.05532405020830695</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>-0.107100096592214</v>
+        <v>-0.1224289881137039</v>
       </c>
       <c r="C68">
-        <v>0.2741590433603162</v>
+        <v>0.2749836034899757</v>
       </c>
       <c r="D68">
-        <v>0.002998837097935303</v>
+        <v>0.002425957217467584</v>
       </c>
       <c r="E68">
-        <v>-0.01737439090441463</v>
+        <v>0.004362657279549095</v>
       </c>
       <c r="F68">
-        <v>-0.006562578390634874</v>
+        <v>0.0221209023605774</v>
       </c>
       <c r="G68">
-        <v>-0.05103646548491194</v>
+        <v>-0.03139556051163728</v>
       </c>
       <c r="H68">
-        <v>0.01115483081831644</v>
+        <v>0.01870090664317274</v>
       </c>
       <c r="I68">
-        <v>-0.01402067843735483</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>0.04192140178909331</v>
+      </c>
+      <c r="J68">
+        <v>-0.04930544650044109</v>
+      </c>
+      <c r="K68">
+        <v>0.03044009730487147</v>
+      </c>
+      <c r="L68">
+        <v>-0.008282528223674245</v>
+      </c>
+      <c r="M68">
+        <v>0.034615906419465</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>-0.03823879535732886</v>
+        <v>-0.04320742875447834</v>
       </c>
       <c r="C69">
-        <v>-0.02897641223428657</v>
+        <v>-0.02228498817799746</v>
       </c>
       <c r="D69">
-        <v>0.002597098106192553</v>
+        <v>-0.0105197533271173</v>
       </c>
       <c r="E69">
-        <v>-0.0115134210746947</v>
+        <v>-0.005164313502911133</v>
       </c>
       <c r="F69">
-        <v>0.04337909699586696</v>
+        <v>0.01275330972197839</v>
       </c>
       <c r="G69">
-        <v>-0.01264870587248305</v>
+        <v>-0.04012277422462468</v>
       </c>
       <c r="H69">
-        <v>-0.01424974966187665</v>
+        <v>-0.006382677509732287</v>
       </c>
       <c r="I69">
-        <v>-0.01790585909014034</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>-0.001600255390351511</v>
+      </c>
+      <c r="J69">
+        <v>0.02002045830408527</v>
+      </c>
+      <c r="K69">
+        <v>0.02450680110161783</v>
+      </c>
+      <c r="L69">
+        <v>-0.000266398073310513</v>
+      </c>
+      <c r="M69">
+        <v>-0.06945343435742064</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>-0.04390139585970002</v>
+        <v>-0.05076427975690951</v>
       </c>
       <c r="C70">
-        <v>-0.003001981324726614</v>
+        <v>-0.03464498138510561</v>
       </c>
       <c r="D70">
-        <v>0.03145422428619317</v>
+        <v>0.02067299934405246</v>
       </c>
       <c r="E70">
-        <v>0.02478513948535768</v>
+        <v>0.01303465987048061</v>
       </c>
       <c r="F70">
-        <v>-0.08942037562382205</v>
+        <v>-0.001699688116940981</v>
       </c>
       <c r="G70">
-        <v>0.07725295647684491</v>
+        <v>0.06310188177493364</v>
       </c>
       <c r="H70">
-        <v>-0.03455843882349052</v>
+        <v>0.005464519754540093</v>
       </c>
       <c r="I70">
-        <v>0.02073276040466469</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>-0.06354372641404865</v>
+      </c>
+      <c r="J70">
+        <v>1.968051130793026e-06</v>
+      </c>
+      <c r="K70">
+        <v>0.1466539851482035</v>
+      </c>
+      <c r="L70">
+        <v>-0.2800840398064326</v>
+      </c>
+      <c r="M70">
+        <v>-0.1883074924907514</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>-0.1103980656616415</v>
+        <v>-0.1368557080163168</v>
       </c>
       <c r="C71">
-        <v>0.2795097162515826</v>
+        <v>0.2821279515007049</v>
       </c>
       <c r="D71">
-        <v>0.03250038280929837</v>
+        <v>0.007974490310607825</v>
       </c>
       <c r="E71">
-        <v>-0.004323207380479115</v>
+        <v>0.02244490547461938</v>
       </c>
       <c r="F71">
-        <v>-0.02689806327621405</v>
+        <v>0.02621662044775432</v>
       </c>
       <c r="G71">
-        <v>-0.02810757431523664</v>
+        <v>-0.03305542122678344</v>
       </c>
       <c r="H71">
-        <v>-0.0003556513061099864</v>
+        <v>0.01100503085839303</v>
       </c>
       <c r="I71">
-        <v>0.04024354952762587</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>0.04473128535194426</v>
+      </c>
+      <c r="J71">
+        <v>-0.00913926319292385</v>
+      </c>
+      <c r="K71">
+        <v>0.008099733921115836</v>
+      </c>
+      <c r="L71">
+        <v>-0.003813668901135506</v>
+      </c>
+      <c r="M71">
+        <v>0.020262634557279</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>-0.1816494865899983</v>
+        <v>-0.1437090648329492</v>
       </c>
       <c r="C72">
-        <v>-0.04455011983863958</v>
+        <v>-0.03387473175582575</v>
       </c>
       <c r="D72">
-        <v>-0.238702662066993</v>
+        <v>-0.003446494657547876</v>
       </c>
       <c r="E72">
-        <v>0.02371224377644049</v>
+        <v>-0.185427513197957</v>
       </c>
       <c r="F72">
-        <v>0.08960150310889062</v>
+        <v>0.051715123234658</v>
       </c>
       <c r="G72">
-        <v>0.04360405146453647</v>
+        <v>-0.005591546630238402</v>
       </c>
       <c r="H72">
-        <v>0.1307077769164765</v>
+        <v>-0.05689172548117017</v>
       </c>
       <c r="I72">
-        <v>-0.01292345208527813</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>-0.01551459011263188</v>
+      </c>
+      <c r="J72">
+        <v>-0.06459876178868548</v>
+      </c>
+      <c r="K72">
+        <v>0.1082503284700689</v>
+      </c>
+      <c r="L72">
+        <v>0.11656859683744</v>
+      </c>
+      <c r="M72">
+        <v>0.01470020000637707</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>-0.2655697893229505</v>
+        <v>-0.2422253030464159</v>
       </c>
       <c r="C73">
-        <v>-0.196753502201047</v>
+        <v>-0.157130315658143</v>
       </c>
       <c r="D73">
-        <v>0.1303137260943402</v>
+        <v>0.1638132653941622</v>
       </c>
       <c r="E73">
-        <v>0.05212504028421294</v>
+        <v>0.1056499140759716</v>
       </c>
       <c r="F73">
-        <v>-0.1809987009274479</v>
+        <v>-0.4082788651834026</v>
       </c>
       <c r="G73">
-        <v>0.08076980497847068</v>
+        <v>0.1236862742066862</v>
       </c>
       <c r="H73">
-        <v>0.1944726243667153</v>
+        <v>-0.2221258319124007</v>
       </c>
       <c r="I73">
-        <v>-0.03501947919012848</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>0.3115558655584517</v>
+      </c>
+      <c r="J73">
+        <v>0.215180581265665</v>
+      </c>
+      <c r="K73">
+        <v>-0.1685268741440674</v>
+      </c>
+      <c r="L73">
+        <v>0.2669743885100265</v>
+      </c>
+      <c r="M73">
+        <v>0.1165645801231319</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>-0.09383429040139475</v>
+        <v>-0.09086544436286285</v>
       </c>
       <c r="C74">
-        <v>-0.03412566778553706</v>
+        <v>-0.06966189431320399</v>
       </c>
       <c r="D74">
-        <v>0.01516673469929545</v>
+        <v>0.0125140469851474</v>
       </c>
       <c r="E74">
-        <v>0.02822334436884888</v>
+        <v>-0.0111338989971803</v>
       </c>
       <c r="F74">
-        <v>0.04995803978420368</v>
+        <v>-0.03865620981414043</v>
       </c>
       <c r="G74">
-        <v>-0.1674765091394191</v>
+        <v>-0.1493345997140118</v>
       </c>
       <c r="H74">
-        <v>0.04670596067641638</v>
+        <v>0.02181776041582321</v>
       </c>
       <c r="I74">
-        <v>0.005077946794391833</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>0.0004257735593863907</v>
+      </c>
+      <c r="J74">
+        <v>0.01366335742234563</v>
+      </c>
+      <c r="K74">
+        <v>0.04015600072760624</v>
+      </c>
+      <c r="L74">
+        <v>0.03722012778262455</v>
+      </c>
+      <c r="M74">
+        <v>0.04654409673379478</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>-0.1006735085637253</v>
+        <v>-0.09161000556479706</v>
       </c>
       <c r="C75">
-        <v>-0.02142099099612449</v>
+        <v>-0.05095208033491209</v>
       </c>
       <c r="D75">
-        <v>0.01928444124017359</v>
+        <v>0.006903667839696538</v>
       </c>
       <c r="E75">
-        <v>0.03100637482853181</v>
+        <v>-0.0133178737220665</v>
       </c>
       <c r="F75">
-        <v>0.0692013034715778</v>
+        <v>-0.0159148108262608</v>
       </c>
       <c r="G75">
-        <v>-0.08130077807307234</v>
+        <v>-0.0983837249774987</v>
       </c>
       <c r="H75">
-        <v>-0.02862297959729049</v>
+        <v>0.02194099488799374</v>
       </c>
       <c r="I75">
-        <v>-0.124329614272951</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>-0.08947639784898578</v>
+      </c>
+      <c r="J75">
+        <v>-0.01905528734721949</v>
+      </c>
+      <c r="K75">
+        <v>0.03061405649467959</v>
+      </c>
+      <c r="L75">
+        <v>0.03006832529029118</v>
+      </c>
+      <c r="M75">
+        <v>-0.05778806594642781</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>-0.1287046889430689</v>
+        <v>-0.094292304111372</v>
       </c>
       <c r="C76">
-        <v>-0.03582582536974535</v>
+        <v>-0.06668122564585539</v>
       </c>
       <c r="D76">
-        <v>0.01586972366536847</v>
+        <v>0.003001076260089851</v>
       </c>
       <c r="E76">
-        <v>0.01426091500878602</v>
+        <v>0.00869630462345335</v>
       </c>
       <c r="F76">
-        <v>0.1335501672967013</v>
+        <v>-0.05482027176663134</v>
       </c>
       <c r="G76">
-        <v>-0.2059262342878619</v>
+        <v>-0.1918280580499608</v>
       </c>
       <c r="H76">
-        <v>0.006589726808071979</v>
+        <v>0.04890533776686629</v>
       </c>
       <c r="I76">
-        <v>-0.1501869278256705</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>-0.1081455062385516</v>
+      </c>
+      <c r="J76">
+        <v>-0.03403975669349389</v>
+      </c>
+      <c r="K76">
+        <v>0.06288099466398811</v>
+      </c>
+      <c r="L76">
+        <v>0.05302094578392751</v>
+      </c>
+      <c r="M76">
+        <v>0.1079825844974436</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>-0.08824905857258572</v>
+        <v>-0.0759895610044153</v>
       </c>
       <c r="C77">
-        <v>-0.02614722454318393</v>
+        <v>-0.01869753478413151</v>
       </c>
       <c r="D77">
-        <v>-0.007191318110961506</v>
+        <v>0.005222123617001233</v>
       </c>
       <c r="E77">
-        <v>-0.3550457438513381</v>
+        <v>0.04603802041646164</v>
       </c>
       <c r="F77">
-        <v>0.57520642529481</v>
+        <v>0.4584873706963052</v>
       </c>
       <c r="G77">
-        <v>0.5500158550553067</v>
+        <v>0.1760492270346884</v>
       </c>
       <c r="H77">
-        <v>0.01028815179602425</v>
+        <v>-0.6709245478581914</v>
       </c>
       <c r="I77">
-        <v>-0.1587869258920839</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>-0.2586391835941496</v>
+      </c>
+      <c r="J77">
+        <v>0.1920003334389196</v>
+      </c>
+      <c r="K77">
+        <v>0.06635047831130191</v>
+      </c>
+      <c r="L77">
+        <v>0.0817939727078312</v>
+      </c>
+      <c r="M77">
+        <v>0.08377836684841496</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>-0.1350769734035801</v>
+        <v>-0.1662865703185431</v>
       </c>
       <c r="C78">
-        <v>-0.09504040490736994</v>
+        <v>-0.1237441350138402</v>
       </c>
       <c r="D78">
-        <v>0.01193637077189959</v>
+        <v>-0.1785705806472432</v>
       </c>
       <c r="E78">
-        <v>-0.1541954063011891</v>
+        <v>0.09893140943435617</v>
       </c>
       <c r="F78">
-        <v>-0.06356054834975654</v>
+        <v>0.1259435407872602</v>
       </c>
       <c r="G78">
-        <v>-0.008187811537088887</v>
+        <v>0.2942928632908663</v>
       </c>
       <c r="H78">
-        <v>-0.09303069087630583</v>
+        <v>0.2401892205297345</v>
       </c>
       <c r="I78">
-        <v>0.1009281744584476</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>-0.4428556920048018</v>
+      </c>
+      <c r="J78">
+        <v>-0.3201158469967476</v>
+      </c>
+      <c r="K78">
+        <v>-0.4990534951720747</v>
+      </c>
+      <c r="L78">
+        <v>0.2453583294852712</v>
+      </c>
+      <c r="M78">
+        <v>0.07815299288203095</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>-0.1419838931922738</v>
+        <v>-0.1342180504293688</v>
       </c>
       <c r="C79">
-        <v>-0.05632997925287943</v>
+        <v>-0.07358256582139616</v>
       </c>
       <c r="D79">
-        <v>0.02526703704241267</v>
+        <v>0.00392698407590429</v>
       </c>
       <c r="E79">
-        <v>0.05244324135129131</v>
+        <v>0.001122671431437174</v>
       </c>
       <c r="F79">
-        <v>0.107281417325419</v>
+        <v>-0.004794130000798101</v>
       </c>
       <c r="G79">
-        <v>-0.1224377579781159</v>
+        <v>-0.1528878165251129</v>
       </c>
       <c r="H79">
-        <v>-0.03912752721019506</v>
+        <v>0.03088991479217157</v>
       </c>
       <c r="I79">
-        <v>-0.1020783241548199</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>-0.08734514217838271</v>
+      </c>
+      <c r="J79">
+        <v>-0.002184129951657003</v>
+      </c>
+      <c r="K79">
+        <v>0.1041167580209019</v>
+      </c>
+      <c r="L79">
+        <v>0.04835377414338106</v>
+      </c>
+      <c r="M79">
+        <v>-0.003966239896454549</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>-0.02564657986932069</v>
+        <v>-0.05418238391611936</v>
       </c>
       <c r="C80">
-        <v>0.003335784362267414</v>
+        <v>-0.02257627690181167</v>
       </c>
       <c r="D80">
-        <v>0.004988939841963603</v>
+        <v>0.06225758935688638</v>
       </c>
       <c r="E80">
-        <v>0.02951700200498134</v>
+        <v>0.007140604938944537</v>
       </c>
       <c r="F80">
-        <v>-0.003796390953813658</v>
+        <v>0.00873403640287336</v>
       </c>
       <c r="G80">
-        <v>5.532385216641469e-05</v>
+        <v>0.02210643957720939</v>
       </c>
       <c r="H80">
-        <v>0.08483938296210482</v>
+        <v>0.08854182566062875</v>
       </c>
       <c r="I80">
-        <v>0.08899785881282009</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>0.1192801683880436</v>
+      </c>
+      <c r="J80">
+        <v>-0.06865944134845874</v>
+      </c>
+      <c r="K80">
+        <v>-0.02153064242701676</v>
+      </c>
+      <c r="L80">
+        <v>-0.08685340365887154</v>
+      </c>
+      <c r="M80">
+        <v>0.05261401003336658</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>-0.1139765508441998</v>
+        <v>-0.1200942428146456</v>
       </c>
       <c r="C81">
-        <v>-0.05341632873009582</v>
+        <v>-0.05210681495026798</v>
       </c>
       <c r="D81">
-        <v>0.03089005704068311</v>
+        <v>0.0005980820534180032</v>
       </c>
       <c r="E81">
-        <v>0.04215928816937942</v>
+        <v>0.003256902724539562</v>
       </c>
       <c r="F81">
-        <v>0.0587823308693768</v>
+        <v>0.01303335301588547</v>
       </c>
       <c r="G81">
-        <v>-0.0802793437915368</v>
+        <v>-0.1358125893450375</v>
       </c>
       <c r="H81">
-        <v>-0.008749834039993664</v>
+        <v>0.06045527109813705</v>
       </c>
       <c r="I81">
-        <v>-0.06405112308044154</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>-0.06654215142442506</v>
+      </c>
+      <c r="J81">
+        <v>0.03343280657559727</v>
+      </c>
+      <c r="K81">
+        <v>0.03117195262024589</v>
+      </c>
+      <c r="L81">
+        <v>0.02779295470634949</v>
+      </c>
+      <c r="M81">
+        <v>-0.06723481004893563</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>-0.1107449119149619</v>
+        <v>-0.119120086088188</v>
       </c>
       <c r="C82">
-        <v>-0.03376884136128672</v>
+        <v>-0.0524253071137678</v>
       </c>
       <c r="D82">
-        <v>0.05796101257014778</v>
+        <v>0.02741457294896601</v>
       </c>
       <c r="E82">
-        <v>0.09227785566371821</v>
+        <v>-0.006830195110461995</v>
       </c>
       <c r="F82">
-        <v>0.16365249082696</v>
+        <v>-0.04209363991228407</v>
       </c>
       <c r="G82">
-        <v>-0.2075235637773476</v>
+        <v>-0.2286411155089213</v>
       </c>
       <c r="H82">
-        <v>-0.05521175787102954</v>
+        <v>0.05429315723608337</v>
       </c>
       <c r="I82">
-        <v>-0.03953375626997763</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>-0.1058777004711406</v>
+      </c>
+      <c r="J82">
+        <v>0.04080032074094787</v>
+      </c>
+      <c r="K82">
+        <v>0.06807502041105169</v>
+      </c>
+      <c r="L82">
+        <v>-0.0443233101814516</v>
+      </c>
+      <c r="M82">
+        <v>0.008525848256332355</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>-0.05883763130590532</v>
+        <v>-0.07662322342697823</v>
       </c>
       <c r="C83">
-        <v>-0.04240363946796744</v>
+        <v>-0.06389619319155414</v>
       </c>
       <c r="D83">
-        <v>0.02876267390531859</v>
+        <v>0.01006961063731745</v>
       </c>
       <c r="E83">
-        <v>0.01873537479639524</v>
+        <v>0.0005633920959210266</v>
       </c>
       <c r="F83">
-        <v>-0.03209648716278537</v>
+        <v>-0.005066663045803697</v>
       </c>
       <c r="G83">
-        <v>0.07961126053395097</v>
+        <v>-0.03973347965285265</v>
       </c>
       <c r="H83">
-        <v>-0.08136155117354453</v>
+        <v>-0.0411471644050843</v>
       </c>
       <c r="I83">
-        <v>0.08672797548413291</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>0.05014513978976161</v>
+      </c>
+      <c r="J83">
+        <v>0.01607495173850931</v>
+      </c>
+      <c r="K83">
+        <v>-0.03715998207962431</v>
+      </c>
+      <c r="L83">
+        <v>-0.1659460863840774</v>
+      </c>
+      <c r="M83">
+        <v>0.02014049413008607</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>-0.04666853238624149</v>
+        <v>-0.04769423694459048</v>
       </c>
       <c r="C84">
-        <v>-0.03319622773740673</v>
+        <v>0.02077052511526244</v>
       </c>
       <c r="D84">
-        <v>-0.0462530269700898</v>
+        <v>0.006806606289628468</v>
       </c>
       <c r="E84">
-        <v>0.0212267933599687</v>
+        <v>-0.01942135339482259</v>
       </c>
       <c r="F84">
-        <v>-0.08288473318901701</v>
+        <v>-0.0009380443463442678</v>
       </c>
       <c r="G84">
-        <v>-0.08874190271916042</v>
+        <v>0.2091986005756091</v>
       </c>
       <c r="H84">
-        <v>-0.008819080292378505</v>
+        <v>0.1881859492431662</v>
       </c>
       <c r="I84">
-        <v>0.03845892374038943</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>0.06628003012762106</v>
+      </c>
+      <c r="J84">
+        <v>0.1319244098736306</v>
+      </c>
+      <c r="K84">
+        <v>-0.03579242362508809</v>
+      </c>
+      <c r="L84">
+        <v>-0.1647816241121516</v>
+      </c>
+      <c r="M84">
+        <v>0.624435349880047</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>-0.08147186622001538</v>
+        <v>-0.1080841392655606</v>
       </c>
       <c r="C85">
-        <v>-0.0495732743942889</v>
+        <v>-0.05225809469510898</v>
       </c>
       <c r="D85">
-        <v>0.05110808894031636</v>
+        <v>0.01305448518722305</v>
       </c>
       <c r="E85">
-        <v>0.02224270734031721</v>
+        <v>0.02990605510701605</v>
       </c>
       <c r="F85">
-        <v>0.1279812797525256</v>
+        <v>0.001132375474119923</v>
       </c>
       <c r="G85">
-        <v>-0.1438774010626892</v>
+        <v>-0.1600817289241472</v>
       </c>
       <c r="H85">
-        <v>0.01709708971371785</v>
+        <v>0.04214842836198974</v>
       </c>
       <c r="I85">
-        <v>-0.05883406441897252</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>-0.07743706583530187</v>
+      </c>
+      <c r="J85">
+        <v>-0.00258226341496245</v>
+      </c>
+      <c r="K85">
+        <v>0.09563873225118089</v>
+      </c>
+      <c r="L85">
+        <v>0.07088754679645766</v>
+      </c>
+      <c r="M85">
+        <v>-0.01620066103793168</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>-0.03501450852093117</v>
+        <v>-0.07292874863743082</v>
       </c>
       <c r="C86">
-        <v>-0.05503403304470743</v>
+        <v>-0.02308307606658953</v>
       </c>
       <c r="D86">
-        <v>-0.01692094131162593</v>
+        <v>-0.01135995425126842</v>
       </c>
       <c r="E86">
-        <v>-0.02694352088475834</v>
+        <v>0.09023144665283522</v>
       </c>
       <c r="F86">
-        <v>-0.004572142738395939</v>
+        <v>0.04256278435961114</v>
       </c>
       <c r="G86">
-        <v>0.0586604134146476</v>
+        <v>0.4139617745075262</v>
       </c>
       <c r="H86">
-        <v>0.1320255505941967</v>
+        <v>0.4308357433329715</v>
       </c>
       <c r="I86">
-        <v>0.1354295232036253</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>-0.1336930042894427</v>
+      </c>
+      <c r="J86">
+        <v>0.4788531055255267</v>
+      </c>
+      <c r="K86">
+        <v>0.3559190036915053</v>
+      </c>
+      <c r="L86">
+        <v>0.155657117902641</v>
+      </c>
+      <c r="M86">
+        <v>-0.02696164459943997</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>-0.08858953782504551</v>
+        <v>-0.1127938195831641</v>
       </c>
       <c r="C87">
-        <v>-0.06846053794590026</v>
+        <v>-0.06506168081158628</v>
       </c>
       <c r="D87">
-        <v>0.01264295624846668</v>
+        <v>-0.03616961291727693</v>
       </c>
       <c r="E87">
-        <v>-0.1434067746343507</v>
+        <v>0.03670530245321919</v>
       </c>
       <c r="F87">
-        <v>0.110203457373956</v>
+        <v>0.1557212041545688</v>
       </c>
       <c r="G87">
-        <v>0.1178452769879385</v>
+        <v>0.09011712774096287</v>
       </c>
       <c r="H87">
-        <v>-0.03383962832844372</v>
+        <v>-0.1561483540623795</v>
       </c>
       <c r="I87">
-        <v>0.05641266100990958</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>-0.007512401936372382</v>
+      </c>
+      <c r="J87">
+        <v>0.07104848735264763</v>
+      </c>
+      <c r="K87">
+        <v>0.03497349721821278</v>
+      </c>
+      <c r="L87">
+        <v>-0.1214742763499594</v>
+      </c>
+      <c r="M87">
+        <v>0.01881160306693367</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>-0.0482618175361511</v>
+        <v>-0.05615214622670076</v>
       </c>
       <c r="C88">
-        <v>-0.03917708056081027</v>
+        <v>-0.05274059990845445</v>
       </c>
       <c r="D88">
-        <v>0.02085149975309045</v>
+        <v>0.02765913903935844</v>
       </c>
       <c r="E88">
-        <v>-0.005884795578490518</v>
+        <v>0.012661660476291</v>
       </c>
       <c r="F88">
-        <v>0.004147180045908632</v>
+        <v>0.03155170395076419</v>
       </c>
       <c r="G88">
-        <v>0.01705607671241841</v>
+        <v>-0.03419298028463118</v>
       </c>
       <c r="H88">
-        <v>-0.009454566319110968</v>
+        <v>0.02074569399752305</v>
       </c>
       <c r="I88">
-        <v>0.0675643701268636</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>0.04361787804277067</v>
+      </c>
+      <c r="J88">
+        <v>0.01541723213085593</v>
+      </c>
+      <c r="K88">
+        <v>-0.01614892661906769</v>
+      </c>
+      <c r="L88">
+        <v>-0.02697147959806568</v>
+      </c>
+      <c r="M88">
+        <v>-0.02037136926248359</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>-0.1830584329312877</v>
+        <v>-0.2160054216629526</v>
       </c>
       <c r="C89">
-        <v>0.3108633554102478</v>
+        <v>0.3562645481572519</v>
       </c>
       <c r="D89">
-        <v>0.0743109872581975</v>
+        <v>-0.04928919964252877</v>
       </c>
       <c r="E89">
-        <v>-0.09445929677246392</v>
+        <v>0.08038272513501261</v>
       </c>
       <c r="F89">
-        <v>-0.03889465725783126</v>
+        <v>0.01088133347059205</v>
       </c>
       <c r="G89">
-        <v>0.005662234097946682</v>
+        <v>-0.01135903189011293</v>
       </c>
       <c r="H89">
-        <v>-0.01305624034887166</v>
+        <v>0.03494519469480323</v>
       </c>
       <c r="I89">
-        <v>0.04081676649746725</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>0.02118220155917651</v>
+      </c>
+      <c r="J89">
+        <v>0.02346251473701739</v>
+      </c>
+      <c r="K89">
+        <v>-0.07617439214529891</v>
+      </c>
+      <c r="L89">
+        <v>-0.02160063454834365</v>
+      </c>
+      <c r="M89">
+        <v>-0.1160135456054396</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>-0.1314134589239128</v>
+        <v>-0.149354671288874</v>
       </c>
       <c r="C90">
-        <v>0.2749771285160795</v>
+        <v>0.2703805281016579</v>
       </c>
       <c r="D90">
-        <v>0.0107849582722801</v>
+        <v>0.007327270361448902</v>
       </c>
       <c r="E90">
-        <v>-0.05949089472467758</v>
+        <v>0.02414953471568806</v>
       </c>
       <c r="F90">
-        <v>-0.001891645317997971</v>
+        <v>0.02945548587520594</v>
       </c>
       <c r="G90">
-        <v>0.04867748330447531</v>
+        <v>0.002658398976684906</v>
       </c>
       <c r="H90">
-        <v>-0.004371664725307636</v>
+        <v>-0.01967007983580392</v>
       </c>
       <c r="I90">
-        <v>0.1417888129994331</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>0.06027130188962961</v>
+      </c>
+      <c r="J90">
+        <v>0.01131815268030266</v>
+      </c>
+      <c r="K90">
+        <v>-0.02467366580894436</v>
+      </c>
+      <c r="L90">
+        <v>0.002454853410461242</v>
+      </c>
+      <c r="M90">
+        <v>0.04143408248534947</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>-0.07995382790166787</v>
+        <v>-0.07861833703528222</v>
       </c>
       <c r="C91">
-        <v>-0.02616209953240934</v>
+        <v>-0.04976470478057622</v>
       </c>
       <c r="D91">
-        <v>0.00637970557873227</v>
+        <v>-0.0102648107032467</v>
       </c>
       <c r="E91">
-        <v>-0.01129457071371895</v>
+        <v>0.007926708892289754</v>
       </c>
       <c r="F91">
-        <v>0.04149653279514037</v>
+        <v>-0.01906557042467148</v>
       </c>
       <c r="G91">
-        <v>-0.103321857642669</v>
+        <v>-0.08294397695136985</v>
       </c>
       <c r="H91">
-        <v>-0.015500322006574</v>
+        <v>0.02408953788603482</v>
       </c>
       <c r="I91">
-        <v>-0.07090512686612783</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>-0.06150714706611063</v>
+      </c>
+      <c r="J91">
+        <v>0.01970014404024075</v>
+      </c>
+      <c r="K91">
+        <v>0.00889194894662132</v>
+      </c>
+      <c r="L91">
+        <v>0.03318474081299394</v>
+      </c>
+      <c r="M91">
+        <v>0.01134359683670888</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>-0.1536668736690724</v>
+        <v>-0.1647707668975438</v>
       </c>
       <c r="C92">
-        <v>0.2935148693411089</v>
+        <v>0.3004624143290868</v>
       </c>
       <c r="D92">
-        <v>0.05530347619306725</v>
+        <v>-0.03488772612585812</v>
       </c>
       <c r="E92">
-        <v>-0.03040332800018054</v>
+        <v>0.04593666781943509</v>
       </c>
       <c r="F92">
-        <v>-0.0739942943252223</v>
+        <v>0.01727966497598036</v>
       </c>
       <c r="G92">
-        <v>-0.03492119604805713</v>
+        <v>-0.03500164026992138</v>
       </c>
       <c r="H92">
-        <v>-0.005066943280258479</v>
+        <v>0.02250115900520045</v>
       </c>
       <c r="I92">
-        <v>-0.01765198408354935</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>0.0177455757826636</v>
+      </c>
+      <c r="J92">
+        <v>-0.01494320991269515</v>
+      </c>
+      <c r="K92">
+        <v>-0.03793725533468224</v>
+      </c>
+      <c r="L92">
+        <v>-0.001209031963361258</v>
+      </c>
+      <c r="M92">
+        <v>-0.06713224345352242</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>-0.1453574587888451</v>
+        <v>-0.1633324991338109</v>
       </c>
       <c r="C93">
-        <v>0.2439251210124108</v>
+        <v>0.287545280964193</v>
       </c>
       <c r="D93">
-        <v>0.02577731819111353</v>
+        <v>0.02542917381409164</v>
       </c>
       <c r="E93">
-        <v>-0.02725775514648766</v>
+        <v>0.01306317983557561</v>
       </c>
       <c r="F93">
-        <v>-0.03028897469258354</v>
+        <v>0.009128503122492264</v>
       </c>
       <c r="G93">
-        <v>0.02958289074979467</v>
+        <v>0.01115537214024865</v>
       </c>
       <c r="H93">
-        <v>-0.001182086285163241</v>
+        <v>0.02278604606559085</v>
       </c>
       <c r="I93">
-        <v>0.04075220564556439</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>0.02528941076608655</v>
+      </c>
+      <c r="J93">
+        <v>0.01654202269567506</v>
+      </c>
+      <c r="K93">
+        <v>0.02318753681642973</v>
+      </c>
+      <c r="L93">
+        <v>-0.02346500231989393</v>
+      </c>
+      <c r="M93">
+        <v>0.02919449677845994</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>-0.0856159367897549</v>
+        <v>-0.1058937205476846</v>
       </c>
       <c r="C94">
-        <v>-0.05813197264055869</v>
+        <v>-0.0761520495617261</v>
       </c>
       <c r="D94">
-        <v>0.007254945084492167</v>
+        <v>-0.01481823540145734</v>
       </c>
       <c r="E94">
-        <v>0.008901045898132195</v>
+        <v>0.01271644667550696</v>
       </c>
       <c r="F94">
-        <v>0.0643097591030551</v>
+        <v>-0.0317009277899221</v>
       </c>
       <c r="G94">
-        <v>-0.1413150524976885</v>
+        <v>-0.1169337737948949</v>
       </c>
       <c r="H94">
-        <v>-0.0111027575385094</v>
+        <v>0.04379963192474706</v>
       </c>
       <c r="I94">
-        <v>-0.118425418412421</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>-0.04778727980056982</v>
+      </c>
+      <c r="J94">
+        <v>-0.02762524539995651</v>
+      </c>
+      <c r="K94">
+        <v>0.01623667425561329</v>
+      </c>
+      <c r="L94">
+        <v>0.04983606693890839</v>
+      </c>
+      <c r="M94">
+        <v>-0.02536742564205588</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>-0.1006997226449751</v>
+        <v>-0.1277111467462987</v>
       </c>
       <c r="C95">
-        <v>-0.07771209054781665</v>
+        <v>-0.06860739861502052</v>
       </c>
       <c r="D95">
-        <v>0.07439876781377763</v>
+        <v>-0.02333650554033944</v>
       </c>
       <c r="E95">
-        <v>-0.02082686083452936</v>
+        <v>0.06166696314102754</v>
       </c>
       <c r="F95">
-        <v>-0.05874524312356663</v>
+        <v>0.06910472218202542</v>
       </c>
       <c r="G95">
-        <v>-0.01384850306928427</v>
+        <v>0.1819202274441583</v>
       </c>
       <c r="H95">
-        <v>0.009212689338387644</v>
+        <v>0.09718135082484448</v>
       </c>
       <c r="I95">
-        <v>0.1673241006343617</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>0.1740256088882327</v>
+      </c>
+      <c r="J95">
+        <v>0.04320087101030164</v>
+      </c>
+      <c r="K95">
+        <v>0.08764046518380508</v>
+      </c>
+      <c r="L95">
+        <v>-0.02033517093675173</v>
+      </c>
+      <c r="M95">
+        <v>-0.4059360689008237</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -3490,97 +4642,145 @@
       <c r="I96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>-0.2712067380322758</v>
+        <v>-0.1622915299762556</v>
       </c>
       <c r="C97">
-        <v>-0.01207153464466854</v>
+        <v>0.005175367395289037</v>
       </c>
       <c r="D97">
-        <v>-0.8727216194839205</v>
+        <v>-0.08906704373888794</v>
       </c>
       <c r="E97">
-        <v>0.170296119305503</v>
+        <v>-0.935588839437297</v>
       </c>
       <c r="F97">
-        <v>-0.06158137437755783</v>
+        <v>0.01371592309579717</v>
       </c>
       <c r="G97">
-        <v>0.0897447382634784</v>
+        <v>0.112384695432483</v>
       </c>
       <c r="H97">
-        <v>0.04636153412172773</v>
+        <v>0.0248639124562896</v>
       </c>
       <c r="I97">
-        <v>0.04407514633783222</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>0.01751158062153692</v>
+      </c>
+      <c r="J97">
+        <v>0.0552800098881727</v>
+      </c>
+      <c r="K97">
+        <v>-0.05034000715265473</v>
+      </c>
+      <c r="L97">
+        <v>0.01662096934133044</v>
+      </c>
+      <c r="M97">
+        <v>-0.0349066858157605</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>-0.2684324561419191</v>
+        <v>-0.2636481942567637</v>
       </c>
       <c r="C98">
-        <v>-0.1047813531754643</v>
+        <v>-0.1173010830136295</v>
       </c>
       <c r="D98">
-        <v>0.1725157054373708</v>
+        <v>0.01500305183347871</v>
       </c>
       <c r="E98">
-        <v>0.2891505942855149</v>
+        <v>0.02557578964222057</v>
       </c>
       <c r="F98">
-        <v>-0.4243956450188981</v>
+        <v>-0.4182871644110668</v>
       </c>
       <c r="G98">
-        <v>0.3156838343486233</v>
+        <v>0.2452407186072526</v>
       </c>
       <c r="H98">
-        <v>-0.3240923908532695</v>
+        <v>-0.1748048189377895</v>
       </c>
       <c r="I98">
-        <v>-0.2050703348273381</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>-0.2668981419206441</v>
+      </c>
+      <c r="J98">
+        <v>-0.1548582100966178</v>
+      </c>
+      <c r="K98">
+        <v>-0.02961668880227021</v>
+      </c>
+      <c r="L98">
+        <v>-0.5785026918440386</v>
+      </c>
+      <c r="M98">
+        <v>-0.037787235107777</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>-0.05269450156897679</v>
+        <v>-0.06752022093583912</v>
       </c>
       <c r="C99">
-        <v>-0.04469376577983908</v>
+        <v>-0.05082035995168664</v>
       </c>
       <c r="D99">
-        <v>-0.006795828642944305</v>
+        <v>-0.01840149162698268</v>
       </c>
       <c r="E99">
-        <v>0.03920296364594408</v>
+        <v>0.009956379145457059</v>
       </c>
       <c r="F99">
-        <v>0.07827625651886229</v>
+        <v>-0.01046483748369689</v>
       </c>
       <c r="G99">
-        <v>0.1790125342812988</v>
+        <v>-0.02973452054468083</v>
       </c>
       <c r="H99">
-        <v>-0.3829702391083458</v>
+        <v>-0.05639689031126811</v>
       </c>
       <c r="I99">
-        <v>-0.3319204398149735</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>-0.1858261184040259</v>
+      </c>
+      <c r="J99">
+        <v>0.1444504619582593</v>
+      </c>
+      <c r="K99">
+        <v>-0.005455129690182164</v>
+      </c>
+      <c r="L99">
+        <v>-0.03151931095005242</v>
+      </c>
+      <c r="M99">
+        <v>-0.344879609384149</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3606,39 +4806,63 @@
       <c r="I100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>-0.0489869440751866</v>
+        <v>-0.04495011849101413</v>
       </c>
       <c r="C101">
-        <v>-0.01647765864646694</v>
+        <v>-0.02329490862425904</v>
       </c>
       <c r="D101">
-        <v>0.01022720766779065</v>
+        <v>-0.003010426428380468</v>
       </c>
       <c r="E101">
-        <v>-0.02157713950904095</v>
+        <v>0.0205283582853523</v>
       </c>
       <c r="F101">
-        <v>-0.007303323328076734</v>
+        <v>0.04490875214710325</v>
       </c>
       <c r="G101">
-        <v>-0.01670399708986496</v>
+        <v>-0.03618977722808532</v>
       </c>
       <c r="H101">
-        <v>0.03415992762658968</v>
+        <v>0.0521752836233166</v>
       </c>
       <c r="I101">
-        <v>0.01712945577142574</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>0.01814959378039403</v>
+      </c>
+      <c r="J101">
+        <v>-0.01144428271373553</v>
+      </c>
+      <c r="K101">
+        <v>0.04077871202141472</v>
+      </c>
+      <c r="L101">
+        <v>-0.03709838838916185</v>
+      </c>
+      <c r="M101">
+        <v>0.03547396497542592</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3664,10 +4888,22 @@
       <c r="I102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3693,10 +4929,22 @@
       <c r="I103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3720,6 +4968,18 @@
         <v>0</v>
       </c>
       <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
